--- a/MSXII_BMS_Current_Sense/Project Outputs for BMS_Current_Sense/BMS_Current_Sense_2.2.xlsx
+++ b/MSXII_BMS_Current_Sense/Project Outputs for BMS_Current_Sense/BMS_Current_Sense_2.2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
     <workbookView xWindow="-30" yWindow="75" windowWidth="15165" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -95,7 +95,7 @@
     <t>Taiping Li</t>
   </si>
   <si>
-    <t>2018-02-11 6:32:01 PM</t>
+    <t>2018-02-23 8:26:32 PM</t>
   </si>
   <si>
     <t>1</t>
@@ -518,10 +518,10 @@
     <t>Bill of Materials For Project [BMS_Current_Sense.PrjPcb] (No PCB Document Selected)</t>
   </si>
   <si>
-    <t>6:32:01 PM</t>
-  </si>
-  <si>
-    <t>2018-02-11</t>
+    <t>8:26:32 PM</t>
+  </si>
+  <si>
+    <t>2018-02-23</t>
   </si>
   <si>
     <t>BOM_PartType</t>
@@ -1322,13 +1322,13 @@
         <v>136</v>
       </c>
       <c r="G14" s="3">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="H14" s="3">
         <v>2</v>
       </c>
       <c r="I14" s="8">
-        <v>0.66</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1380,13 +1380,13 @@
         <v>138</v>
       </c>
       <c r="G16" s="3">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
       </c>
       <c r="I16" s="8">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1409,13 +1409,13 @@
         <v>139</v>
       </c>
       <c r="G17" s="3">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
       </c>
       <c r="I17" s="8">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="I39" s="12">
         <f>SUM(I12:I38)</f>
-        <v>57.780000000000008</v>
+        <v>57.860000000000007</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -2073,87 +2073,87 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1" tooltip="Component" display="'Murata Electronics North America" xr:uid="{E3B2D623-7845-4AA2-A851-FDADFA1B91EE}"/>
-    <hyperlink ref="C13" r:id="rId2" tooltip="Component" display="'Murata Electronics North America" xr:uid="{D2263D8C-F850-4840-94B4-3A5ECF32D34E}"/>
-    <hyperlink ref="C14" r:id="rId3" tooltip="Component" display="'Taiyo Yuden" xr:uid="{EAAEA198-1502-4666-9AB0-C5CFA087711F}"/>
-    <hyperlink ref="C15" r:id="rId4" tooltip="Component" display="'AVX Corporation" xr:uid="{4A25A0B2-16B6-489D-A706-7663D6DB0CE1}"/>
-    <hyperlink ref="C16" r:id="rId5" tooltip="Component" display="'Murata Electronics North America" xr:uid="{D5AE0CA9-62AB-44A7-AE1F-BFCA0EAAF077}"/>
-    <hyperlink ref="C17" r:id="rId6" tooltip="Component" display="'Murata Electronics North America" xr:uid="{5263ED4E-5CCA-4941-A6DB-93C0FCEFD759}"/>
-    <hyperlink ref="C18" r:id="rId7" tooltip="Component" display="'AVX Corporation" xr:uid="{D1C0492B-52E7-420D-A46C-7030F8B84A44}"/>
-    <hyperlink ref="C19" r:id="rId8" tooltip="Component" display="'KEMET" xr:uid="{76E01B5A-69EA-47B6-8A17-B3F41F17E88A}"/>
-    <hyperlink ref="C20" r:id="rId9" tooltip="Component" display="'Murata Electronics North America" xr:uid="{7F2448AF-8D1E-444B-8A1B-4FF905A7C6FD}"/>
-    <hyperlink ref="C21" r:id="rId10" tooltip="Component" display="'EPCOS (TDK)" xr:uid="{2D9B896A-A4DE-48D9-841B-08D291C7ADEB}"/>
-    <hyperlink ref="C22" r:id="rId11" tooltip="Component" display="'TDK Corporation" xr:uid="{07727964-1218-4600-A067-8F756ED8DA67}"/>
-    <hyperlink ref="C23" r:id="rId12" tooltip="Component" display="'Wurth Electronics Inc." xr:uid="{12C154C2-FA73-4580-99AA-64AAA55A4251}"/>
-    <hyperlink ref="C24" r:id="rId13" tooltip="Component" display="'Wurth Electronics Inc." xr:uid="{4D9236C3-F260-4D3B-B7C5-82F89595C961}"/>
-    <hyperlink ref="C25" r:id="rId14" tooltip="Component" display="'Yageo" xr:uid="{A43C55ED-A854-4CD2-A915-1A2405DA0217}"/>
-    <hyperlink ref="C26" r:id="rId15" tooltip="Component" display="'Vishay Dale" xr:uid="{FF8F550A-BA83-427B-83BB-8181718156A5}"/>
-    <hyperlink ref="C27" r:id="rId16" tooltip="Component" display="'Vishay Beyschlag" xr:uid="{D4203D3F-15A1-405C-A080-2A2DB8FA1A1D}"/>
-    <hyperlink ref="C28" r:id="rId17" tooltip="Component" display="'Yageo" xr:uid="{3F2480A8-F59F-4E8C-8CE9-7D65381DC97E}"/>
-    <hyperlink ref="C29" r:id="rId18" tooltip="Component" display="'Yageo" xr:uid="{CAFE3846-A48F-461B-8E55-5BDEC81F3CA4}"/>
-    <hyperlink ref="C30" r:id="rId19" tooltip="Component" display="'Yageo" xr:uid="{B3A176C9-42D3-450B-B659-5A45CFE8140F}"/>
-    <hyperlink ref="C31" r:id="rId20" tooltip="Component" display="'Yageo" xr:uid="{ADF71AE3-F109-4AE6-A8B5-445BB937B32E}"/>
-    <hyperlink ref="C32" r:id="rId21" tooltip="Component" display="'XP Power" xr:uid="{874E9394-BFF8-458C-B3CF-A036428EB11B}"/>
-    <hyperlink ref="C33" r:id="rId22" tooltip="Component" display="'STMicroelectronics" xr:uid="{A9CC0C6F-0C8A-4DBB-8954-87545BA3C32F}"/>
-    <hyperlink ref="C34" r:id="rId23" tooltip="Component" display="'Texas Instruments" xr:uid="{C80D2665-5164-425E-AF83-2EE8D0C229A3}"/>
-    <hyperlink ref="C35" r:id="rId24" tooltip="Component" display="'Linear Technology" xr:uid="{55868B4A-82E7-481F-B250-0BFBCB97C66E}"/>
-    <hyperlink ref="C36" r:id="rId25" tooltip="Component" display="'Texas Instruments" xr:uid="{CF35AC79-702E-44FA-8C85-2BEAB181AABF}"/>
-    <hyperlink ref="C37" r:id="rId26" tooltip="Component" display="'Linear Technology/Analog Devices" xr:uid="{A8BE7D7F-0B75-4051-801F-42C986151987}"/>
-    <hyperlink ref="C38" r:id="rId27" tooltip="Component" display="'Bourns Inc." xr:uid="{B2D2E088-69BD-4E5B-9925-139249D4D6CD}"/>
-    <hyperlink ref="D12" r:id="rId28" tooltip="Manufacturer" display="'GRT21BR61H475ME13L" xr:uid="{75891EF0-F152-4100-BBCF-25F0B9A44729}"/>
-    <hyperlink ref="D13" r:id="rId29" tooltip="Manufacturer" display="'GRM188R61E225KA12D" xr:uid="{F37D2B59-5873-4FCF-8B54-40FCF0F4BBFA}"/>
-    <hyperlink ref="D14" r:id="rId30" tooltip="Manufacturer" display="'UMK107AB7105KA-T" xr:uid="{CFB1931A-070F-4E9F-8D0B-21E9617D25CD}"/>
-    <hyperlink ref="D15" r:id="rId31" tooltip="Manufacturer" display="'06035C104KAT2A" xr:uid="{2D1BCB06-0C59-4852-8DA4-C3D266F6830F}"/>
-    <hyperlink ref="D16" r:id="rId32" tooltip="Manufacturer" display="'GRM188R71H223KA01D" xr:uid="{31166BC0-98C3-45DF-80D5-903CA04688B6}"/>
-    <hyperlink ref="D17" r:id="rId33" tooltip="Manufacturer" display="'GRM21BR61E106KA73L" xr:uid="{C6BCDB05-52A0-4C2F-B86D-AA1066C79442}"/>
-    <hyperlink ref="D18" r:id="rId34" tooltip="Manufacturer" display="'TAJR105K025RNJ" xr:uid="{FA672988-E722-4B98-91C1-2C470848A0C9}"/>
-    <hyperlink ref="D19" r:id="rId35" tooltip="Manufacturer" display="'C0603C103J5JAC7867" xr:uid="{B469C3A4-BC19-4176-8706-B9BA73E29A60}"/>
-    <hyperlink ref="D20" r:id="rId36" tooltip="Manufacturer" display="'GRM1885C1H200JA01D" xr:uid="{F4A407D5-0ECB-467E-8635-FBE62CE0745F}"/>
-    <hyperlink ref="D21" r:id="rId37" tooltip="Manufacturer" display="'B82422T1104J000" xr:uid="{A0F80677-9DB1-43D7-BA03-517A7E4F52DB}"/>
-    <hyperlink ref="D22" r:id="rId38" tooltip="Manufacturer" display="'NLFV32T-6R8M-EF" xr:uid="{601C723A-F544-40DB-89EB-B3D9D6D50BEE}"/>
-    <hyperlink ref="D23" r:id="rId39" tooltip="Manufacturer" display="'150060YS75000" xr:uid="{EB63D7DC-4F15-4D4A-B52A-03FF2CA5D64F}"/>
-    <hyperlink ref="D24" r:id="rId40" tooltip="Manufacturer" display="'150060VS75000" xr:uid="{0335A0BF-40D9-4B10-8890-7BD66DA7ED46}"/>
-    <hyperlink ref="D25" r:id="rId41" tooltip="Manufacturer" display="'RC0603FR-07120RL" xr:uid="{061C897F-C868-4C6B-9A76-BDB3EB56F13B}"/>
-    <hyperlink ref="D26" r:id="rId42" tooltip="Manufacturer" display="'WSBM8518L1000JK" xr:uid="{992ACBB5-AE41-4E68-8E32-08DAD88A5C3A}"/>
-    <hyperlink ref="D27" r:id="rId43" tooltip="Manufacturer" display="'ACASN1002S1002P1AT" xr:uid="{08CF13AA-67FB-4F60-901C-5ECDD2CD8EC5}"/>
-    <hyperlink ref="D28" r:id="rId44" tooltip="Manufacturer" display="'RC0603FR-074K7L" xr:uid="{4D8C650D-65F3-4209-90E3-BD3C16EA09F9}"/>
-    <hyperlink ref="D29" r:id="rId45" tooltip="Manufacturer" display="'RC0603FR-072KL" xr:uid="{292BC032-4797-41D9-A1FB-B04CAAB43A79}"/>
-    <hyperlink ref="D30" r:id="rId46" tooltip="Manufacturer" display="'RC0603FR-071K4L" xr:uid="{F47CE943-975B-400F-879C-1FBEDD432A9E}"/>
-    <hyperlink ref="D31" r:id="rId47" tooltip="Manufacturer" display="'RC0603FR-07604RL" xr:uid="{12B31FEC-80A5-4E11-B17B-DD16DC2CF461}"/>
-    <hyperlink ref="D32" r:id="rId48" tooltip="Manufacturer" display="'ISE1212A" xr:uid="{5A26344E-4AB3-4470-A276-9DD078A20088}"/>
-    <hyperlink ref="D33" r:id="rId49" tooltip="Manufacturer" display="'LD2981CM50TR" xr:uid="{32CD1406-1399-4E9B-8F2C-951654C2976D}"/>
-    <hyperlink ref="D34" r:id="rId50" tooltip="Manufacturer" display="'LM4120AIM5-4.1/NOPB" xr:uid="{B72FEF6F-2441-4054-85B0-CDEFBBF3FB56}"/>
-    <hyperlink ref="D35" r:id="rId51" tooltip="Manufacturer" display="'LTC2484CDD#PBF" xr:uid="{9FEC6B00-691C-4D31-8442-B9D82ED94468}"/>
-    <hyperlink ref="D36" r:id="rId52" tooltip="Manufacturer" display="'INA240A3PWR" xr:uid="{5EE7372E-2E71-409D-BE65-986C4F904D60}"/>
-    <hyperlink ref="D37" r:id="rId53" tooltip="Manufacturer" display="'LTC6820IUD#PBF" xr:uid="{E1974E9F-D6E4-4622-ACF0-8483CABBAF69}"/>
-    <hyperlink ref="D38" r:id="rId54" tooltip="Manufacturer" display="'PT61018AAPEL-S" xr:uid="{B075840F-813F-48E8-8BFE-B1EC77B8089A}"/>
-    <hyperlink ref="F12" r:id="rId55" tooltip="Supplier" display="'490-12395-1-ND" xr:uid="{7134408C-2C4D-48D7-A3E8-9AAF22B1A286}"/>
-    <hyperlink ref="F13" r:id="rId56" tooltip="Supplier" display="'490-10731-1-ND" xr:uid="{A309A74B-9FA7-4DDF-B175-98892AFBDA3E}"/>
-    <hyperlink ref="F14" r:id="rId57" tooltip="Supplier" display="'587-3247-1-ND" xr:uid="{7ABDB7EB-47E0-4AD3-9148-C09FA14D4148}"/>
-    <hyperlink ref="F15" r:id="rId58" tooltip="Supplier" display="'478-5052-1-ND" xr:uid="{A27CE2AE-41DE-4F76-8934-162DAED5B917}"/>
-    <hyperlink ref="F16" r:id="rId59" tooltip="Supplier" display="'490-1517-1-ND" xr:uid="{FCE55C8B-B559-4022-88D6-E9A9A0BB72E6}"/>
-    <hyperlink ref="F17" r:id="rId60" tooltip="Supplier" display="'490-5523-1-ND" xr:uid="{BA16EDC3-AE70-4434-8EDD-61FBAEF4812A}"/>
-    <hyperlink ref="F18" r:id="rId61" tooltip="Supplier" display="'478-8928-1-ND" xr:uid="{0FCF2A5E-EC76-4184-B580-6B97E5117A22}"/>
-    <hyperlink ref="F19" r:id="rId62" tooltip="Supplier" display="'399-13384-1-ND" xr:uid="{D0D1461F-97C5-4299-A0F4-3A3DF8F7131D}"/>
-    <hyperlink ref="F20" r:id="rId63" tooltip="Supplier" display="'490-1410-1-ND" xr:uid="{4C49E554-BA21-4EEF-8BAD-149846EC8DE7}"/>
-    <hyperlink ref="F21" r:id="rId64" tooltip="Supplier" display="'495-5646-1-ND" xr:uid="{DDE20358-3F29-45CF-BCCC-0339392EB8B2}"/>
-    <hyperlink ref="F22" r:id="rId65" tooltip="Supplier" display="'445-15776-1-ND" xr:uid="{A6EA1BFC-6A7F-497B-B45A-30DBB47A5384}"/>
-    <hyperlink ref="F23" r:id="rId66" tooltip="Supplier" display="'732-4981-1-ND" xr:uid="{4B638D3C-FE9E-48B3-9874-AABD939111F7}"/>
-    <hyperlink ref="F24" r:id="rId67" tooltip="Supplier" display="'732-4980-1-ND" xr:uid="{47B495E2-1CF8-4C92-8DA9-E1B0C43466A9}"/>
-    <hyperlink ref="F25" r:id="rId68" tooltip="Supplier" display="'311-120HRCT-ND" xr:uid="{30779C29-13B3-4E65-981D-3D187A31EB40}"/>
-    <hyperlink ref="F26" r:id="rId69" tooltip="Supplier" display="'541-1906-ND" xr:uid="{FD5EA6D7-3F00-460F-A6EB-E8672556CA5F}"/>
-    <hyperlink ref="F27" r:id="rId70" tooltip="Supplier" display="'749-1046-1-ND" xr:uid="{3CE4ECB0-A8EB-423A-A5FF-664BF8944F4D}"/>
-    <hyperlink ref="F28" r:id="rId71" tooltip="Supplier" display="'311-4.70KHRCT-ND" xr:uid="{EB526F5C-3135-4E72-BCF9-6FC8A65467DE}"/>
-    <hyperlink ref="F29" r:id="rId72" tooltip="Supplier" display="'311-2.00KHRCT-ND" xr:uid="{7DFE427D-FBA6-4343-8B85-5DFFFA976C6F}"/>
-    <hyperlink ref="F30" r:id="rId73" tooltip="Supplier" display="'311-1.40KHRCT-ND" xr:uid="{1B26C925-2824-4850-A8EC-D8D1575E8EA1}"/>
-    <hyperlink ref="F31" r:id="rId74" tooltip="Supplier" display="'311-604HRCT-ND" xr:uid="{5F073563-6B89-482D-8ACB-EA6680A974A0}"/>
-    <hyperlink ref="F32" r:id="rId75" tooltip="Supplier" display="'1470-2950-1-ND" xr:uid="{A95EBA7D-225F-4814-8065-5B4DA4C75C0C}"/>
-    <hyperlink ref="F33" r:id="rId76" tooltip="Supplier" display="'497-7787-1-ND" xr:uid="{C3444CBD-64E2-4557-B6C0-38233F2CCD85}"/>
-    <hyperlink ref="F34" r:id="rId77" tooltip="Supplier" display="'LM4120AIM5-4.1/NOPBCT-ND" xr:uid="{326E1528-C55B-4C28-A3AE-48AE3242BB7A}"/>
-    <hyperlink ref="F35" r:id="rId78" tooltip="Supplier" display="'LTC2484CDD#PBF-ND" xr:uid="{B61BB132-DC9E-4848-8D6A-7EEDE677562F}"/>
-    <hyperlink ref="F36" r:id="rId79" tooltip="Supplier" display="'296-45090-1-ND" xr:uid="{BFF1254D-63CE-46BF-B2DE-8315C87ED141}"/>
-    <hyperlink ref="F37" r:id="rId80" tooltip="Supplier" display="'LTC6820IUD#PBF-ND" xr:uid="{D4D06015-AEBE-438C-A321-E598CCF8B072}"/>
-    <hyperlink ref="F38" r:id="rId81" tooltip="Supplier" display="'PT61018AAPEL-SCT-ND" xr:uid="{0DB62674-E123-4FC6-B486-E4A003DDA130}"/>
+    <hyperlink ref="C12" r:id="rId1" tooltip="Component" display="'Murata Electronics North America" xr:uid="{9BF1D5C7-CD65-47C0-9D08-03A8D7D860BD}"/>
+    <hyperlink ref="C13" r:id="rId2" tooltip="Component" display="'Murata Electronics North America" xr:uid="{D9C29CCA-2B6A-4D68-99D5-87294FA57E1A}"/>
+    <hyperlink ref="C14" r:id="rId3" tooltip="Component" display="'Taiyo Yuden" xr:uid="{86758251-C1D2-4EF5-B49B-89B8DBD429D5}"/>
+    <hyperlink ref="C15" r:id="rId4" tooltip="Component" display="'AVX Corporation" xr:uid="{F592F793-2557-419C-B152-62D1F869AC4A}"/>
+    <hyperlink ref="C16" r:id="rId5" tooltip="Component" display="'Murata Electronics North America" xr:uid="{823C3353-2957-4674-B9FF-D02F4AF44E8F}"/>
+    <hyperlink ref="C17" r:id="rId6" tooltip="Component" display="'Murata Electronics North America" xr:uid="{E411075B-4B31-4C15-AABA-569C872E1861}"/>
+    <hyperlink ref="C18" r:id="rId7" tooltip="Component" display="'AVX Corporation" xr:uid="{E23027B5-EF2B-4292-8CCB-51E59E6DD0BC}"/>
+    <hyperlink ref="C19" r:id="rId8" tooltip="Component" display="'KEMET" xr:uid="{42C11E90-C01C-4B39-87F6-2A4AE42B3A98}"/>
+    <hyperlink ref="C20" r:id="rId9" tooltip="Component" display="'Murata Electronics North America" xr:uid="{571CE03A-0472-4F2C-9C20-CB65A4102A46}"/>
+    <hyperlink ref="C21" r:id="rId10" tooltip="Component" display="'EPCOS (TDK)" xr:uid="{4C102C7B-D139-4F49-920A-506380089F2B}"/>
+    <hyperlink ref="C22" r:id="rId11" tooltip="Component" display="'TDK Corporation" xr:uid="{A7820CAF-CA85-47E5-95C3-15433C606B21}"/>
+    <hyperlink ref="C23" r:id="rId12" tooltip="Component" display="'Wurth Electronics Inc." xr:uid="{7B69E981-24D5-4C8B-8B7C-FD39D4260287}"/>
+    <hyperlink ref="C24" r:id="rId13" tooltip="Component" display="'Wurth Electronics Inc." xr:uid="{86DC7678-6189-4696-8CCB-36270D7355D5}"/>
+    <hyperlink ref="C25" r:id="rId14" tooltip="Component" display="'Yageo" xr:uid="{19887186-D805-4DB8-97B2-7BCD455F6566}"/>
+    <hyperlink ref="C26" r:id="rId15" tooltip="Component" display="'Vishay Dale" xr:uid="{83A76836-2811-4179-82D7-99B5BD3D027B}"/>
+    <hyperlink ref="C27" r:id="rId16" tooltip="Component" display="'Vishay Beyschlag" xr:uid="{D4C8D473-096B-4521-B902-04CCC16B2448}"/>
+    <hyperlink ref="C28" r:id="rId17" tooltip="Component" display="'Yageo" xr:uid="{41096D3E-DCEC-4139-BE95-5816533B2610}"/>
+    <hyperlink ref="C29" r:id="rId18" tooltip="Component" display="'Yageo" xr:uid="{DBC3F426-E5BB-45EF-B31D-CD139D851E47}"/>
+    <hyperlink ref="C30" r:id="rId19" tooltip="Component" display="'Yageo" xr:uid="{CDA03065-156F-4834-A89F-F01A575CBCDF}"/>
+    <hyperlink ref="C31" r:id="rId20" tooltip="Component" display="'Yageo" xr:uid="{1DC1D679-4BC8-4B1E-9A55-CC1B1647B2A1}"/>
+    <hyperlink ref="C32" r:id="rId21" tooltip="Component" display="'XP Power" xr:uid="{600F4924-17A1-47CB-879C-4EA69D8ED939}"/>
+    <hyperlink ref="C33" r:id="rId22" tooltip="Component" display="'STMicroelectronics" xr:uid="{19C1FAA4-6F80-484C-8DDB-0756333C730A}"/>
+    <hyperlink ref="C34" r:id="rId23" tooltip="Component" display="'Texas Instruments" xr:uid="{66DF7EF2-FB41-40F0-95E4-999A9016A3A0}"/>
+    <hyperlink ref="C35" r:id="rId24" tooltip="Component" display="'Linear Technology" xr:uid="{33A3822C-1704-48E9-8F93-9C40B28B042B}"/>
+    <hyperlink ref="C36" r:id="rId25" tooltip="Component" display="'Texas Instruments" xr:uid="{543A7D88-1269-4C85-995C-3FF71CC141F0}"/>
+    <hyperlink ref="C37" r:id="rId26" tooltip="Component" display="'Linear Technology/Analog Devices" xr:uid="{47766FC9-557F-4595-8E3B-9C26CB4AA271}"/>
+    <hyperlink ref="C38" r:id="rId27" tooltip="Component" display="'Bourns Inc." xr:uid="{B965FAC9-C33B-4A6A-BC2B-9F4A3370444C}"/>
+    <hyperlink ref="D12" r:id="rId28" tooltip="Manufacturer" display="'GRT21BR61H475ME13L" xr:uid="{ECA6C37A-1959-4087-BC36-8C77769CFB05}"/>
+    <hyperlink ref="D13" r:id="rId29" tooltip="Manufacturer" display="'GRM188R61E225KA12D" xr:uid="{1D0DAE3D-0DB4-4AD1-AF24-74E495402A83}"/>
+    <hyperlink ref="D14" r:id="rId30" tooltip="Manufacturer" display="'UMK107AB7105KA-T" xr:uid="{A3214AB6-D46A-4F38-8CDF-5FF0A448D879}"/>
+    <hyperlink ref="D15" r:id="rId31" tooltip="Manufacturer" display="'06035C104KAT2A" xr:uid="{5CD2A3DA-620F-40A8-9419-37CBF0D50DE3}"/>
+    <hyperlink ref="D16" r:id="rId32" tooltip="Manufacturer" display="'GRM188R71H223KA01D" xr:uid="{BD649B6F-6FDE-4618-B126-D8FE2C684A4C}"/>
+    <hyperlink ref="D17" r:id="rId33" tooltip="Manufacturer" display="'GRM21BR61E106KA73L" xr:uid="{9E5B9DFD-F31D-4576-81A3-18D220576648}"/>
+    <hyperlink ref="D18" r:id="rId34" tooltip="Manufacturer" display="'TAJR105K025RNJ" xr:uid="{28527502-36C4-4BFD-96C0-A5740649F65D}"/>
+    <hyperlink ref="D19" r:id="rId35" tooltip="Manufacturer" display="'C0603C103J5JAC7867" xr:uid="{9008117C-C109-4BE7-AFC2-2F4C1651E947}"/>
+    <hyperlink ref="D20" r:id="rId36" tooltip="Manufacturer" display="'GRM1885C1H200JA01D" xr:uid="{3BB3E273-B788-4F82-A57B-1D3AFA61F008}"/>
+    <hyperlink ref="D21" r:id="rId37" tooltip="Manufacturer" display="'B82422T1104J000" xr:uid="{F4D9A395-F9B7-44BB-9BF3-C14BE8B0621D}"/>
+    <hyperlink ref="D22" r:id="rId38" tooltip="Manufacturer" display="'NLFV32T-6R8M-EF" xr:uid="{63FE22BC-4AEC-4A15-9A18-37D03BB658DD}"/>
+    <hyperlink ref="D23" r:id="rId39" tooltip="Manufacturer" display="'150060YS75000" xr:uid="{0C827F06-CC5C-4B15-B7D1-9C17723D87DB}"/>
+    <hyperlink ref="D24" r:id="rId40" tooltip="Manufacturer" display="'150060VS75000" xr:uid="{AE62DAD8-DEE1-44E7-A373-849406E74BF9}"/>
+    <hyperlink ref="D25" r:id="rId41" tooltip="Manufacturer" display="'RC0603FR-07120RL" xr:uid="{AE7CB1F6-8013-469C-A71E-ED3ECD0F9B05}"/>
+    <hyperlink ref="D26" r:id="rId42" tooltip="Manufacturer" display="'WSBM8518L1000JK" xr:uid="{69D55204-5529-430D-92D3-CDD090AE3F20}"/>
+    <hyperlink ref="D27" r:id="rId43" tooltip="Manufacturer" display="'ACASN1002S1002P1AT" xr:uid="{60004BEF-981E-4F58-B757-BD19112B7C61}"/>
+    <hyperlink ref="D28" r:id="rId44" tooltip="Manufacturer" display="'RC0603FR-074K7L" xr:uid="{0FC755B4-F137-4C4F-A2F1-2562D432238F}"/>
+    <hyperlink ref="D29" r:id="rId45" tooltip="Manufacturer" display="'RC0603FR-072KL" xr:uid="{169DF77A-D2E5-47C7-A7DB-26D70495B28D}"/>
+    <hyperlink ref="D30" r:id="rId46" tooltip="Manufacturer" display="'RC0603FR-071K4L" xr:uid="{BDEF6B10-D733-4CE3-BD3E-2089EED9444C}"/>
+    <hyperlink ref="D31" r:id="rId47" tooltip="Manufacturer" display="'RC0603FR-07604RL" xr:uid="{044687D1-4C8A-4009-B171-44064CCF3647}"/>
+    <hyperlink ref="D32" r:id="rId48" tooltip="Manufacturer" display="'ISE1212A" xr:uid="{479E26A9-6FC8-4A9F-B8DB-2E6C0B084708}"/>
+    <hyperlink ref="D33" r:id="rId49" tooltip="Manufacturer" display="'LD2981CM50TR" xr:uid="{2646B652-F56B-4FD9-BF7F-026D701634D0}"/>
+    <hyperlink ref="D34" r:id="rId50" tooltip="Manufacturer" display="'LM4120AIM5-4.1/NOPB" xr:uid="{88B7DA0D-6D71-432A-96CB-73C72949E42E}"/>
+    <hyperlink ref="D35" r:id="rId51" tooltip="Manufacturer" display="'LTC2484CDD#PBF" xr:uid="{4B026709-DC23-4B76-B8AD-28EFB3937610}"/>
+    <hyperlink ref="D36" r:id="rId52" tooltip="Manufacturer" display="'INA240A3PWR" xr:uid="{20A445A5-7644-45A5-BCAC-99A75AA25FCC}"/>
+    <hyperlink ref="D37" r:id="rId53" tooltip="Manufacturer" display="'LTC6820IUD#PBF" xr:uid="{B9AFC738-3501-43B1-A0AF-2D46D5381B94}"/>
+    <hyperlink ref="D38" r:id="rId54" tooltip="Manufacturer" display="'PT61018AAPEL-S" xr:uid="{F7177A19-FF0A-498C-9B81-A9F3526047F5}"/>
+    <hyperlink ref="F12" r:id="rId55" tooltip="Supplier" display="'490-12395-1-ND" xr:uid="{E8FAB39E-75C5-4032-8DAA-13F6BEDABA4B}"/>
+    <hyperlink ref="F13" r:id="rId56" tooltip="Supplier" display="'490-10731-1-ND" xr:uid="{C8A1918F-3C3F-475D-9BCA-D0E6D6F927E2}"/>
+    <hyperlink ref="F14" r:id="rId57" tooltip="Supplier" display="'587-3247-1-ND" xr:uid="{37D04D94-6F00-454F-9E36-B2645F1CB050}"/>
+    <hyperlink ref="F15" r:id="rId58" tooltip="Supplier" display="'478-5052-1-ND" xr:uid="{59A38678-351D-45C5-8CBE-51DFF80B685E}"/>
+    <hyperlink ref="F16" r:id="rId59" tooltip="Supplier" display="'490-1517-1-ND" xr:uid="{BDAFAA8B-5751-4076-B0E8-7A47DE589C00}"/>
+    <hyperlink ref="F17" r:id="rId60" tooltip="Supplier" display="'490-5523-1-ND" xr:uid="{C932D2E2-535B-492A-8A48-85B1F15ECA27}"/>
+    <hyperlink ref="F18" r:id="rId61" tooltip="Supplier" display="'478-8928-1-ND" xr:uid="{101EF958-8999-4968-8FCF-137F35B5DC36}"/>
+    <hyperlink ref="F19" r:id="rId62" tooltip="Supplier" display="'399-13384-1-ND" xr:uid="{B74EC7F6-DD31-45AF-8579-0EFC1DF0B8B7}"/>
+    <hyperlink ref="F20" r:id="rId63" tooltip="Supplier" display="'490-1410-1-ND" xr:uid="{1D7C8986-4953-4072-9E28-7F2C6A6A0BEC}"/>
+    <hyperlink ref="F21" r:id="rId64" tooltip="Supplier" display="'495-5646-1-ND" xr:uid="{0D236B1C-A534-495E-BE25-60690487BC0D}"/>
+    <hyperlink ref="F22" r:id="rId65" tooltip="Supplier" display="'445-15776-1-ND" xr:uid="{BD826A56-286D-4D06-B2D8-688F4E6C2BE8}"/>
+    <hyperlink ref="F23" r:id="rId66" tooltip="Supplier" display="'732-4981-1-ND" xr:uid="{8C1B1B13-1831-499D-82E6-C6A3ED32393F}"/>
+    <hyperlink ref="F24" r:id="rId67" tooltip="Supplier" display="'732-4980-1-ND" xr:uid="{3D05D7BE-001E-42FC-B088-8946B040588A}"/>
+    <hyperlink ref="F25" r:id="rId68" tooltip="Supplier" display="'311-120HRCT-ND" xr:uid="{D7C409F7-9353-4255-B0A3-7D8F229846F4}"/>
+    <hyperlink ref="F26" r:id="rId69" tooltip="Supplier" display="'541-1906-ND" xr:uid="{82FA9444-A066-40B0-90D4-C409CD5CB12C}"/>
+    <hyperlink ref="F27" r:id="rId70" tooltip="Supplier" display="'749-1046-1-ND" xr:uid="{31B27F42-65BE-4951-B656-C8F01C5648D6}"/>
+    <hyperlink ref="F28" r:id="rId71" tooltip="Supplier" display="'311-4.70KHRCT-ND" xr:uid="{8594F936-E01C-47DD-8220-AEEE3CB8DA12}"/>
+    <hyperlink ref="F29" r:id="rId72" tooltip="Supplier" display="'311-2.00KHRCT-ND" xr:uid="{364AD0D1-FA26-4C29-85B6-E23D67B14C91}"/>
+    <hyperlink ref="F30" r:id="rId73" tooltip="Supplier" display="'311-1.40KHRCT-ND" xr:uid="{59B6A853-A06C-48E7-B191-314121D6DDA5}"/>
+    <hyperlink ref="F31" r:id="rId74" tooltip="Supplier" display="'311-604HRCT-ND" xr:uid="{FCF8020D-829B-40BC-B806-E02DAAB6C3A7}"/>
+    <hyperlink ref="F32" r:id="rId75" tooltip="Supplier" display="'1470-2950-1-ND" xr:uid="{5F671D54-7725-423F-A04A-C14E73EE1767}"/>
+    <hyperlink ref="F33" r:id="rId76" tooltip="Supplier" display="'497-7787-1-ND" xr:uid="{3BFB9326-B1D9-4ED4-8F06-C949CE4E1153}"/>
+    <hyperlink ref="F34" r:id="rId77" tooltip="Supplier" display="'LM4120AIM5-4.1/NOPBCT-ND" xr:uid="{9E155AD7-82FA-4F72-8254-55B5FE7607C3}"/>
+    <hyperlink ref="F35" r:id="rId78" tooltip="Supplier" display="'LTC2484CDD#PBF-ND" xr:uid="{730277E0-EEAF-4897-A644-8AD8A9B74842}"/>
+    <hyperlink ref="F36" r:id="rId79" tooltip="Supplier" display="'296-45090-1-ND" xr:uid="{3486C81F-D4C1-4B1C-9E3D-CB4B27E6440C}"/>
+    <hyperlink ref="F37" r:id="rId80" tooltip="Supplier" display="'LTC6820IUD#PBF-ND" xr:uid="{CAC75680-ED39-464C-A81F-681C0D0D424B}"/>
+    <hyperlink ref="F38" r:id="rId81" tooltip="Supplier" display="'PT61018AAPEL-SCT-ND" xr:uid="{A004026A-BDFB-4069-98A5-B64D445C30B7}"/>
   </hyperlinks>
   <pageMargins left="0.46" right="0.36" top="0.57999999999999996" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId82"/>

--- a/MSXII_BMS_Current_Sense/Project Outputs for BMS_Current_Sense/BMS_Current_Sense_2.2.xlsx
+++ b/MSXII_BMS_Current_Sense/Project Outputs for BMS_Current_Sense/BMS_Current_Sense_2.2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="180">
   <si>
     <t>Title</t>
   </si>
@@ -95,7 +95,7 @@
     <t>Taiping Li</t>
   </si>
   <si>
-    <t>2018-02-23 8:26:32 PM</t>
+    <t>2018-02-27 9:40:37 PM</t>
   </si>
   <si>
     <t>1</t>
@@ -197,13 +197,19 @@
     <t>C1</t>
   </si>
   <si>
-    <t>C2, C3</t>
-  </si>
-  <si>
-    <t>C4, C5</t>
-  </si>
-  <si>
-    <t>C6, C10, C11, C12, C15</t>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
   </si>
   <si>
     <t>C7</t>
@@ -215,12 +221,24 @@
     <t>C9</t>
   </si>
   <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
     <t>C13</t>
   </si>
   <si>
     <t>C14</t>
   </si>
   <si>
+    <t>C15</t>
+  </si>
+  <si>
     <t>L1</t>
   </si>
   <si>
@@ -233,7 +251,7 @@
     <t>LED2</t>
   </si>
   <si>
-    <t>R1, R7</t>
+    <t>R1</t>
   </si>
   <si>
     <t>R2</t>
@@ -245,7 +263,13 @@
     <t>R4</t>
   </si>
   <si>
-    <t>R5, R6</t>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
   </si>
   <si>
     <t>R8</t>
@@ -278,52 +302,55 @@
     <t>Manufacturer 1</t>
   </si>
   <si>
-    <t>Murata Electronics North America</t>
+    <t>Murata</t>
   </si>
   <si>
     <t>Taiyo Yuden</t>
   </si>
   <si>
-    <t>AVX Corporation</t>
+    <t>Kyocera AVX</t>
   </si>
   <si>
     <t>KEMET</t>
   </si>
   <si>
-    <t>EPCOS (TDK)</t>
-  </si>
-  <si>
-    <t>TDK Corporation</t>
-  </si>
-  <si>
-    <t>Wurth Electronics Inc.</t>
+    <t>TDK EPCOS</t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>Wurth Electronics</t>
+  </si>
+  <si>
+    <t>Yageo Phycomp</t>
+  </si>
+  <si>
+    <t>Vishay Dale</t>
+  </si>
+  <si>
+    <t>Vishay Beyschlag</t>
   </si>
   <si>
     <t>Yageo</t>
   </si>
   <si>
-    <t>Vishay Dale</t>
-  </si>
-  <si>
-    <t>Vishay Beyschlag</t>
-  </si>
-  <si>
     <t>XP Power</t>
   </si>
   <si>
     <t>STMicroelectronics</t>
   </si>
   <si>
+    <t>TI National Semiconductor</t>
+  </si>
+  <si>
+    <t>Linear Technology</t>
+  </si>
+  <si>
     <t>Texas Instruments</t>
   </si>
   <si>
-    <t>Linear Technology</t>
-  </si>
-  <si>
-    <t>Linear Technology/Analog Devices</t>
-  </si>
-  <si>
-    <t>Bourns Inc.</t>
+    <t>Bourns</t>
   </si>
   <si>
     <t>Manufacturer Part Number 1</t>
@@ -338,7 +365,7 @@
     <t>UMK107AB7105KA-T</t>
   </si>
   <si>
-    <t>06035C104KAT2A</t>
+    <t>06035C-104KAT2A</t>
   </si>
   <si>
     <t>GRM188R71H223KA01D</t>
@@ -356,7 +383,7 @@
     <t>GRM1885C1H200JA01D</t>
   </si>
   <si>
-    <t>B82422T1104J000</t>
+    <t>B82422T1104J</t>
   </si>
   <si>
     <t>NLFV32T-6R8M-EF</t>
@@ -389,7 +416,7 @@
     <t>RC0603FR-07604RL</t>
   </si>
   <si>
-    <t>ISE1212A</t>
+    <t>ISE1212A-TR</t>
   </si>
   <si>
     <t>LD2981CM50TR</t>
@@ -518,10 +545,10 @@
     <t>Bill of Materials For Project [BMS_Current_Sense.PrjPcb] (No PCB Document Selected)</t>
   </si>
   <si>
-    <t>8:26:32 PM</t>
-  </si>
-  <si>
-    <t>2018-02-23</t>
+    <t>9:40:37 PM</t>
+  </si>
+  <si>
+    <t>2018-02-27</t>
   </si>
   <si>
     <t>BOM_PartType</t>
@@ -1114,7 +1141,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J41"/>
+  <dimension ref="A2:J49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -1223,25 +1250,25 @@
         <v>58</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1252,25 +1279,25 @@
         <v>59</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G12" s="3">
-        <v>0.56000000000000005</v>
+        <v>0.53</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
       </c>
       <c r="I12" s="8">
-        <v>0.56000000000000005</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1281,791 +1308,1023 @@
         <v>60</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="G13" s="3">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="H13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" s="8">
-        <v>0.42</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="29" t="s">
         <v>61</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G14" s="3">
-        <v>0.36</v>
+        <v>0.2</v>
       </c>
       <c r="H14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="8">
-        <v>0.72</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="29" t="s">
         <v>62</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="G15" s="3">
-        <v>0.13</v>
+        <v>0.34</v>
       </c>
       <c r="H15" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I15" s="8">
-        <v>0.65</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B16" s="29" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="G16" s="3">
-        <v>0.16</v>
+        <v>0.34</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
       </c>
       <c r="I16" s="8">
-        <v>0.16</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17" s="29" t="s">
         <v>64</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="G17" s="3">
-        <v>0.28999999999999998</v>
+        <v>0.13</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
       </c>
       <c r="I17" s="8">
-        <v>0.28999999999999998</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="29" t="s">
         <v>65</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G18" s="3">
-        <v>0.95</v>
+        <v>0.15</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
       </c>
       <c r="I18" s="8">
-        <v>0.95</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" s="29" t="s">
         <v>66</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G19" s="3">
-        <v>0.35</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
       </c>
       <c r="I19" s="8">
-        <v>0.35</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" s="29" t="s">
         <v>67</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G20" s="3">
-        <v>0.15</v>
+        <v>0.89</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
       </c>
       <c r="I20" s="8">
-        <v>0.15</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="29" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B21" s="29" t="s">
         <v>68</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G21" s="3">
-        <v>0.65</v>
+        <v>0.13</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
       </c>
       <c r="I21" s="8">
-        <v>0.65</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="29" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B22" s="29" t="s">
         <v>69</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G22" s="3">
-        <v>0.59</v>
+        <v>0.13</v>
       </c>
       <c r="H22" s="3">
         <v>1</v>
       </c>
       <c r="I22" s="8">
-        <v>0.59</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="29" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B23" s="29" t="s">
         <v>70</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G23" s="3">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="H23" s="3">
         <v>1</v>
       </c>
       <c r="I23" s="8">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B24" s="29" t="s">
         <v>71</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G24" s="3">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
       </c>
       <c r="I24" s="8">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="29" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B25" s="29" t="s">
         <v>72</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G25" s="3">
         <v>0.14000000000000001</v>
       </c>
       <c r="H25" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" s="8">
-        <v>0.28000000000000003</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="29" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B26" s="29" t="s">
         <v>73</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G26" s="3">
-        <v>19.079999999999998</v>
+        <v>0.13</v>
       </c>
       <c r="H26" s="3">
         <v>1</v>
       </c>
       <c r="I26" s="8">
-        <v>19.079999999999998</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="29" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B27" s="29" t="s">
         <v>74</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G27" s="3">
-        <v>0.84</v>
+        <v>0.62</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
       </c>
       <c r="I27" s="8">
-        <v>0.84</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B28" s="29" t="s">
         <v>75</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G28" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H28" s="3">
         <v>1</v>
       </c>
       <c r="I28" s="8">
-        <v>0.14000000000000001</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="29" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B29" s="29" t="s">
         <v>76</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G29" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="H29" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" s="8">
-        <v>0.28000000000000003</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B30" s="29" t="s">
         <v>77</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G30" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="H30" s="3">
         <v>1</v>
       </c>
       <c r="I30" s="8">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B31" s="29" t="s">
         <v>78</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F31" s="33" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G31" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="H31" s="3">
         <v>1</v>
       </c>
       <c r="I31" s="8">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="29" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B32" s="29" t="s">
         <v>79</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G32" s="3">
-        <v>6.68</v>
+        <v>17.96</v>
       </c>
       <c r="H32" s="3">
         <v>1</v>
       </c>
       <c r="I32" s="8">
-        <v>6.68</v>
+        <v>17.96</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="29" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B33" s="29" t="s">
         <v>80</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G33" s="3">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
       <c r="H33" s="3">
         <v>1</v>
       </c>
       <c r="I33" s="8">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="29" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B34" s="29" t="s">
         <v>81</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F34" s="33" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G34" s="3">
-        <v>3.11</v>
+        <v>0.13</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
       </c>
       <c r="I34" s="8">
-        <v>3.11</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="29" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B35" s="29" t="s">
         <v>82</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G35" s="3">
-        <v>7.13</v>
+        <v>0.13</v>
       </c>
       <c r="H35" s="3">
         <v>1</v>
       </c>
       <c r="I35" s="8">
-        <v>7.13</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="29" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B36" s="29" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F36" s="33" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G36" s="3">
-        <v>3.76</v>
+        <v>0.13</v>
       </c>
       <c r="H36" s="3">
         <v>1</v>
       </c>
       <c r="I36" s="8">
-        <v>3.76</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="29" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B37" s="29" t="s">
         <v>84</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F37" s="33" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G37" s="3">
-        <v>7.1</v>
+        <v>0.13</v>
       </c>
       <c r="H37" s="3">
         <v>1</v>
       </c>
       <c r="I37" s="8">
-        <v>7.1</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="29" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B38" s="29" t="s">
         <v>85</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E38" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="H38" s="3">
+        <v>1</v>
+      </c>
+      <c r="I38" s="8">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="F38" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="G38" s="3">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="H38" s="3">
-        <v>1</v>
-      </c>
-      <c r="I38" s="8">
-        <v>2.4700000000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="9"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="3" t="s">
+      <c r="E39" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F39" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1</v>
+      </c>
+      <c r="I39" s="8">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="G40" s="3">
+        <v>5.34</v>
+      </c>
+      <c r="H40" s="3">
+        <v>1</v>
+      </c>
+      <c r="I40" s="8">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F41" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1</v>
+      </c>
+      <c r="I41" s="8">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="G42" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1</v>
+      </c>
+      <c r="I42" s="8">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="G43" s="3">
+        <v>6.31</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1</v>
+      </c>
+      <c r="I43" s="8">
+        <v>6.31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="G44" s="3">
+        <v>3.33</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1</v>
+      </c>
+      <c r="I44" s="8">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F45" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="G45" s="3">
+        <v>6.28</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1</v>
+      </c>
+      <c r="I45" s="8">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F46" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="G46" s="3">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1</v>
+      </c>
+      <c r="I46" s="8">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I39" s="12">
-        <f>SUM(I12:I38)</f>
-        <v>57.860000000000007</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="15"/>
-    </row>
-    <row r="41" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="15"/>
+      <c r="I47" s="12">
+        <f>SUM(I12:I46)</f>
+        <v>52.26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="13"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="15"/>
+    </row>
+    <row r="49" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2073,94 +2332,118 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1" tooltip="Component" display="'Murata Electronics North America" xr:uid="{9BF1D5C7-CD65-47C0-9D08-03A8D7D860BD}"/>
-    <hyperlink ref="C13" r:id="rId2" tooltip="Component" display="'Murata Electronics North America" xr:uid="{D9C29CCA-2B6A-4D68-99D5-87294FA57E1A}"/>
-    <hyperlink ref="C14" r:id="rId3" tooltip="Component" display="'Taiyo Yuden" xr:uid="{86758251-C1D2-4EF5-B49B-89B8DBD429D5}"/>
-    <hyperlink ref="C15" r:id="rId4" tooltip="Component" display="'AVX Corporation" xr:uid="{F592F793-2557-419C-B152-62D1F869AC4A}"/>
-    <hyperlink ref="C16" r:id="rId5" tooltip="Component" display="'Murata Electronics North America" xr:uid="{823C3353-2957-4674-B9FF-D02F4AF44E8F}"/>
-    <hyperlink ref="C17" r:id="rId6" tooltip="Component" display="'Murata Electronics North America" xr:uid="{E411075B-4B31-4C15-AABA-569C872E1861}"/>
-    <hyperlink ref="C18" r:id="rId7" tooltip="Component" display="'AVX Corporation" xr:uid="{E23027B5-EF2B-4292-8CCB-51E59E6DD0BC}"/>
-    <hyperlink ref="C19" r:id="rId8" tooltip="Component" display="'KEMET" xr:uid="{42C11E90-C01C-4B39-87F6-2A4AE42B3A98}"/>
-    <hyperlink ref="C20" r:id="rId9" tooltip="Component" display="'Murata Electronics North America" xr:uid="{571CE03A-0472-4F2C-9C20-CB65A4102A46}"/>
-    <hyperlink ref="C21" r:id="rId10" tooltip="Component" display="'EPCOS (TDK)" xr:uid="{4C102C7B-D139-4F49-920A-506380089F2B}"/>
-    <hyperlink ref="C22" r:id="rId11" tooltip="Component" display="'TDK Corporation" xr:uid="{A7820CAF-CA85-47E5-95C3-15433C606B21}"/>
-    <hyperlink ref="C23" r:id="rId12" tooltip="Component" display="'Wurth Electronics Inc." xr:uid="{7B69E981-24D5-4C8B-8B7C-FD39D4260287}"/>
-    <hyperlink ref="C24" r:id="rId13" tooltip="Component" display="'Wurth Electronics Inc." xr:uid="{86DC7678-6189-4696-8CCB-36270D7355D5}"/>
-    <hyperlink ref="C25" r:id="rId14" tooltip="Component" display="'Yageo" xr:uid="{19887186-D805-4DB8-97B2-7BCD455F6566}"/>
-    <hyperlink ref="C26" r:id="rId15" tooltip="Component" display="'Vishay Dale" xr:uid="{83A76836-2811-4179-82D7-99B5BD3D027B}"/>
-    <hyperlink ref="C27" r:id="rId16" tooltip="Component" display="'Vishay Beyschlag" xr:uid="{D4C8D473-096B-4521-B902-04CCC16B2448}"/>
-    <hyperlink ref="C28" r:id="rId17" tooltip="Component" display="'Yageo" xr:uid="{41096D3E-DCEC-4139-BE95-5816533B2610}"/>
-    <hyperlink ref="C29" r:id="rId18" tooltip="Component" display="'Yageo" xr:uid="{DBC3F426-E5BB-45EF-B31D-CD139D851E47}"/>
-    <hyperlink ref="C30" r:id="rId19" tooltip="Component" display="'Yageo" xr:uid="{CDA03065-156F-4834-A89F-F01A575CBCDF}"/>
-    <hyperlink ref="C31" r:id="rId20" tooltip="Component" display="'Yageo" xr:uid="{1DC1D679-4BC8-4B1E-9A55-CC1B1647B2A1}"/>
-    <hyperlink ref="C32" r:id="rId21" tooltip="Component" display="'XP Power" xr:uid="{600F4924-17A1-47CB-879C-4EA69D8ED939}"/>
-    <hyperlink ref="C33" r:id="rId22" tooltip="Component" display="'STMicroelectronics" xr:uid="{19C1FAA4-6F80-484C-8DDB-0756333C730A}"/>
-    <hyperlink ref="C34" r:id="rId23" tooltip="Component" display="'Texas Instruments" xr:uid="{66DF7EF2-FB41-40F0-95E4-999A9016A3A0}"/>
-    <hyperlink ref="C35" r:id="rId24" tooltip="Component" display="'Linear Technology" xr:uid="{33A3822C-1704-48E9-8F93-9C40B28B042B}"/>
-    <hyperlink ref="C36" r:id="rId25" tooltip="Component" display="'Texas Instruments" xr:uid="{543A7D88-1269-4C85-995C-3FF71CC141F0}"/>
-    <hyperlink ref="C37" r:id="rId26" tooltip="Component" display="'Linear Technology/Analog Devices" xr:uid="{47766FC9-557F-4595-8E3B-9C26CB4AA271}"/>
-    <hyperlink ref="C38" r:id="rId27" tooltip="Component" display="'Bourns Inc." xr:uid="{B965FAC9-C33B-4A6A-BC2B-9F4A3370444C}"/>
-    <hyperlink ref="D12" r:id="rId28" tooltip="Manufacturer" display="'GRT21BR61H475ME13L" xr:uid="{ECA6C37A-1959-4087-BC36-8C77769CFB05}"/>
-    <hyperlink ref="D13" r:id="rId29" tooltip="Manufacturer" display="'GRM188R61E225KA12D" xr:uid="{1D0DAE3D-0DB4-4AD1-AF24-74E495402A83}"/>
-    <hyperlink ref="D14" r:id="rId30" tooltip="Manufacturer" display="'UMK107AB7105KA-T" xr:uid="{A3214AB6-D46A-4F38-8CDF-5FF0A448D879}"/>
-    <hyperlink ref="D15" r:id="rId31" tooltip="Manufacturer" display="'06035C104KAT2A" xr:uid="{5CD2A3DA-620F-40A8-9419-37CBF0D50DE3}"/>
-    <hyperlink ref="D16" r:id="rId32" tooltip="Manufacturer" display="'GRM188R71H223KA01D" xr:uid="{BD649B6F-6FDE-4618-B126-D8FE2C684A4C}"/>
-    <hyperlink ref="D17" r:id="rId33" tooltip="Manufacturer" display="'GRM21BR61E106KA73L" xr:uid="{9E5B9DFD-F31D-4576-81A3-18D220576648}"/>
-    <hyperlink ref="D18" r:id="rId34" tooltip="Manufacturer" display="'TAJR105K025RNJ" xr:uid="{28527502-36C4-4BFD-96C0-A5740649F65D}"/>
-    <hyperlink ref="D19" r:id="rId35" tooltip="Manufacturer" display="'C0603C103J5JAC7867" xr:uid="{9008117C-C109-4BE7-AFC2-2F4C1651E947}"/>
-    <hyperlink ref="D20" r:id="rId36" tooltip="Manufacturer" display="'GRM1885C1H200JA01D" xr:uid="{3BB3E273-B788-4F82-A57B-1D3AFA61F008}"/>
-    <hyperlink ref="D21" r:id="rId37" tooltip="Manufacturer" display="'B82422T1104J000" xr:uid="{F4D9A395-F9B7-44BB-9BF3-C14BE8B0621D}"/>
-    <hyperlink ref="D22" r:id="rId38" tooltip="Manufacturer" display="'NLFV32T-6R8M-EF" xr:uid="{63FE22BC-4AEC-4A15-9A18-37D03BB658DD}"/>
-    <hyperlink ref="D23" r:id="rId39" tooltip="Manufacturer" display="'150060YS75000" xr:uid="{0C827F06-CC5C-4B15-B7D1-9C17723D87DB}"/>
-    <hyperlink ref="D24" r:id="rId40" tooltip="Manufacturer" display="'150060VS75000" xr:uid="{AE62DAD8-DEE1-44E7-A373-849406E74BF9}"/>
-    <hyperlink ref="D25" r:id="rId41" tooltip="Manufacturer" display="'RC0603FR-07120RL" xr:uid="{AE7CB1F6-8013-469C-A71E-ED3ECD0F9B05}"/>
-    <hyperlink ref="D26" r:id="rId42" tooltip="Manufacturer" display="'WSBM8518L1000JK" xr:uid="{69D55204-5529-430D-92D3-CDD090AE3F20}"/>
-    <hyperlink ref="D27" r:id="rId43" tooltip="Manufacturer" display="'ACASN1002S1002P1AT" xr:uid="{60004BEF-981E-4F58-B757-BD19112B7C61}"/>
-    <hyperlink ref="D28" r:id="rId44" tooltip="Manufacturer" display="'RC0603FR-074K7L" xr:uid="{0FC755B4-F137-4C4F-A2F1-2562D432238F}"/>
-    <hyperlink ref="D29" r:id="rId45" tooltip="Manufacturer" display="'RC0603FR-072KL" xr:uid="{169DF77A-D2E5-47C7-A7DB-26D70495B28D}"/>
-    <hyperlink ref="D30" r:id="rId46" tooltip="Manufacturer" display="'RC0603FR-071K4L" xr:uid="{BDEF6B10-D733-4CE3-BD3E-2089EED9444C}"/>
-    <hyperlink ref="D31" r:id="rId47" tooltip="Manufacturer" display="'RC0603FR-07604RL" xr:uid="{044687D1-4C8A-4009-B171-44064CCF3647}"/>
-    <hyperlink ref="D32" r:id="rId48" tooltip="Manufacturer" display="'ISE1212A" xr:uid="{479E26A9-6FC8-4A9F-B8DB-2E6C0B084708}"/>
-    <hyperlink ref="D33" r:id="rId49" tooltip="Manufacturer" display="'LD2981CM50TR" xr:uid="{2646B652-F56B-4FD9-BF7F-026D701634D0}"/>
-    <hyperlink ref="D34" r:id="rId50" tooltip="Manufacturer" display="'LM4120AIM5-4.1/NOPB" xr:uid="{88B7DA0D-6D71-432A-96CB-73C72949E42E}"/>
-    <hyperlink ref="D35" r:id="rId51" tooltip="Manufacturer" display="'LTC2484CDD#PBF" xr:uid="{4B026709-DC23-4B76-B8AD-28EFB3937610}"/>
-    <hyperlink ref="D36" r:id="rId52" tooltip="Manufacturer" display="'INA240A3PWR" xr:uid="{20A445A5-7644-45A5-BCAC-99A75AA25FCC}"/>
-    <hyperlink ref="D37" r:id="rId53" tooltip="Manufacturer" display="'LTC6820IUD#PBF" xr:uid="{B9AFC738-3501-43B1-A0AF-2D46D5381B94}"/>
-    <hyperlink ref="D38" r:id="rId54" tooltip="Manufacturer" display="'PT61018AAPEL-S" xr:uid="{F7177A19-FF0A-498C-9B81-A9F3526047F5}"/>
-    <hyperlink ref="F12" r:id="rId55" tooltip="Supplier" display="'490-12395-1-ND" xr:uid="{E8FAB39E-75C5-4032-8DAA-13F6BEDABA4B}"/>
-    <hyperlink ref="F13" r:id="rId56" tooltip="Supplier" display="'490-10731-1-ND" xr:uid="{C8A1918F-3C3F-475D-9BCA-D0E6D6F927E2}"/>
-    <hyperlink ref="F14" r:id="rId57" tooltip="Supplier" display="'587-3247-1-ND" xr:uid="{37D04D94-6F00-454F-9E36-B2645F1CB050}"/>
-    <hyperlink ref="F15" r:id="rId58" tooltip="Supplier" display="'478-5052-1-ND" xr:uid="{59A38678-351D-45C5-8CBE-51DFF80B685E}"/>
-    <hyperlink ref="F16" r:id="rId59" tooltip="Supplier" display="'490-1517-1-ND" xr:uid="{BDAFAA8B-5751-4076-B0E8-7A47DE589C00}"/>
-    <hyperlink ref="F17" r:id="rId60" tooltip="Supplier" display="'490-5523-1-ND" xr:uid="{C932D2E2-535B-492A-8A48-85B1F15ECA27}"/>
-    <hyperlink ref="F18" r:id="rId61" tooltip="Supplier" display="'478-8928-1-ND" xr:uid="{101EF958-8999-4968-8FCF-137F35B5DC36}"/>
-    <hyperlink ref="F19" r:id="rId62" tooltip="Supplier" display="'399-13384-1-ND" xr:uid="{B74EC7F6-DD31-45AF-8579-0EFC1DF0B8B7}"/>
-    <hyperlink ref="F20" r:id="rId63" tooltip="Supplier" display="'490-1410-1-ND" xr:uid="{1D7C8986-4953-4072-9E28-7F2C6A6A0BEC}"/>
-    <hyperlink ref="F21" r:id="rId64" tooltip="Supplier" display="'495-5646-1-ND" xr:uid="{0D236B1C-A534-495E-BE25-60690487BC0D}"/>
-    <hyperlink ref="F22" r:id="rId65" tooltip="Supplier" display="'445-15776-1-ND" xr:uid="{BD826A56-286D-4D06-B2D8-688F4E6C2BE8}"/>
-    <hyperlink ref="F23" r:id="rId66" tooltip="Supplier" display="'732-4981-1-ND" xr:uid="{8C1B1B13-1831-499D-82E6-C6A3ED32393F}"/>
-    <hyperlink ref="F24" r:id="rId67" tooltip="Supplier" display="'732-4980-1-ND" xr:uid="{3D05D7BE-001E-42FC-B088-8946B040588A}"/>
-    <hyperlink ref="F25" r:id="rId68" tooltip="Supplier" display="'311-120HRCT-ND" xr:uid="{D7C409F7-9353-4255-B0A3-7D8F229846F4}"/>
-    <hyperlink ref="F26" r:id="rId69" tooltip="Supplier" display="'541-1906-ND" xr:uid="{82FA9444-A066-40B0-90D4-C409CD5CB12C}"/>
-    <hyperlink ref="F27" r:id="rId70" tooltip="Supplier" display="'749-1046-1-ND" xr:uid="{31B27F42-65BE-4951-B656-C8F01C5648D6}"/>
-    <hyperlink ref="F28" r:id="rId71" tooltip="Supplier" display="'311-4.70KHRCT-ND" xr:uid="{8594F936-E01C-47DD-8220-AEEE3CB8DA12}"/>
-    <hyperlink ref="F29" r:id="rId72" tooltip="Supplier" display="'311-2.00KHRCT-ND" xr:uid="{364AD0D1-FA26-4C29-85B6-E23D67B14C91}"/>
-    <hyperlink ref="F30" r:id="rId73" tooltip="Supplier" display="'311-1.40KHRCT-ND" xr:uid="{59B6A853-A06C-48E7-B191-314121D6DDA5}"/>
-    <hyperlink ref="F31" r:id="rId74" tooltip="Supplier" display="'311-604HRCT-ND" xr:uid="{FCF8020D-829B-40BC-B806-E02DAAB6C3A7}"/>
-    <hyperlink ref="F32" r:id="rId75" tooltip="Supplier" display="'1470-2950-1-ND" xr:uid="{5F671D54-7725-423F-A04A-C14E73EE1767}"/>
-    <hyperlink ref="F33" r:id="rId76" tooltip="Supplier" display="'497-7787-1-ND" xr:uid="{3BFB9326-B1D9-4ED4-8F06-C949CE4E1153}"/>
-    <hyperlink ref="F34" r:id="rId77" tooltip="Supplier" display="'LM4120AIM5-4.1/NOPBCT-ND" xr:uid="{9E155AD7-82FA-4F72-8254-55B5FE7607C3}"/>
-    <hyperlink ref="F35" r:id="rId78" tooltip="Supplier" display="'LTC2484CDD#PBF-ND" xr:uid="{730277E0-EEAF-4897-A644-8AD8A9B74842}"/>
-    <hyperlink ref="F36" r:id="rId79" tooltip="Supplier" display="'296-45090-1-ND" xr:uid="{3486C81F-D4C1-4B1C-9E3D-CB4B27E6440C}"/>
-    <hyperlink ref="F37" r:id="rId80" tooltip="Supplier" display="'LTC6820IUD#PBF-ND" xr:uid="{CAC75680-ED39-464C-A81F-681C0D0D424B}"/>
-    <hyperlink ref="F38" r:id="rId81" tooltip="Supplier" display="'PT61018AAPEL-SCT-ND" xr:uid="{A004026A-BDFB-4069-98A5-B64D445C30B7}"/>
+    <hyperlink ref="C12" r:id="rId1" tooltip="Component" display="'Murata" xr:uid="{B1EB2F5D-EDBB-4E3A-AD2F-DF913BAFF2DD}"/>
+    <hyperlink ref="C13" r:id="rId2" tooltip="Component" display="'Murata" xr:uid="{C65A51A7-5EC2-47DA-B183-F3B955103739}"/>
+    <hyperlink ref="C14" r:id="rId3" tooltip="Component" display="'Murata" xr:uid="{C131E058-0869-4B56-89AB-0CB45FDD6933}"/>
+    <hyperlink ref="C15" r:id="rId4" tooltip="Component" display="'Taiyo Yuden" xr:uid="{8CA2F3F4-4700-41F5-A06E-01CACE1B432C}"/>
+    <hyperlink ref="C16" r:id="rId5" tooltip="Component" display="'Taiyo Yuden" xr:uid="{C7CC27ED-C339-4D05-AA75-1A7681D696FD}"/>
+    <hyperlink ref="C17" r:id="rId6" tooltip="Component" display="'Kyocera AVX" xr:uid="{529AFDE9-E4D7-4A26-864F-22006CC12B00}"/>
+    <hyperlink ref="C18" r:id="rId7" tooltip="Component" display="'Murata" xr:uid="{6510E222-BE26-4327-A921-5EAF9F0255B5}"/>
+    <hyperlink ref="C19" r:id="rId8" tooltip="Component" display="'Murata" xr:uid="{58B4F54E-E1ED-495E-A9C4-87051B7D20A0}"/>
+    <hyperlink ref="C20" r:id="rId9" tooltip="Component" display="'Kyocera AVX" xr:uid="{E4B2C6DB-2203-48F6-B05E-4D35D993186C}"/>
+    <hyperlink ref="C21" r:id="rId10" tooltip="Component" display="'Kyocera AVX" xr:uid="{B1B31D26-0349-4FE3-A8CB-B80F803D1877}"/>
+    <hyperlink ref="C22" r:id="rId11" tooltip="Component" display="'Kyocera AVX" xr:uid="{63F29C05-3D0F-4C56-A954-1D355E75FF3A}"/>
+    <hyperlink ref="C23" r:id="rId12" tooltip="Component" display="'Kyocera AVX" xr:uid="{799C6C47-FF49-4E62-921C-D3C2E814570F}"/>
+    <hyperlink ref="C24" r:id="rId13" tooltip="Component" display="'KEMET" xr:uid="{A2BF3D4F-A051-45C3-B586-07AF73A93588}"/>
+    <hyperlink ref="C25" r:id="rId14" tooltip="Component" display="'Murata" xr:uid="{83327334-5DB3-4731-8A6D-A4A6FD4F591C}"/>
+    <hyperlink ref="C26" r:id="rId15" tooltip="Component" display="'Kyocera AVX" xr:uid="{F4F44110-A04B-416F-A039-8C3D0D7B27D1}"/>
+    <hyperlink ref="C27" r:id="rId16" tooltip="Component" display="'TDK EPCOS" xr:uid="{E654B9AD-354D-4A33-B842-9EFE1CEAAB4A}"/>
+    <hyperlink ref="C28" r:id="rId17" tooltip="Component" display="'TDK" xr:uid="{FEDE162C-148E-4829-901D-BA2D11C20998}"/>
+    <hyperlink ref="C29" r:id="rId18" tooltip="Component" display="'Wurth Electronics" xr:uid="{2DB1638C-B175-47F3-8E2C-2D9BD3C4602E}"/>
+    <hyperlink ref="C30" r:id="rId19" tooltip="Component" display="'Wurth Electronics" xr:uid="{25575ECD-9B5C-44A3-A61A-A3DB8FB0C1AD}"/>
+    <hyperlink ref="C31" r:id="rId20" tooltip="Component" display="'Yageo Phycomp" xr:uid="{636EB22E-680F-4DD7-95CB-074BDD173FC4}"/>
+    <hyperlink ref="C32" r:id="rId21" tooltip="Component" display="'Vishay Dale" xr:uid="{0A5155F8-6E3E-4F2E-AC44-60AA13DA8E62}"/>
+    <hyperlink ref="C33" r:id="rId22" tooltip="Component" display="'Vishay Beyschlag" xr:uid="{78C0D039-6448-427F-8717-61A6832784D7}"/>
+    <hyperlink ref="C34" r:id="rId23" tooltip="Component" display="'Yageo" xr:uid="{F7BA2089-13C8-47FD-B0BC-FC0487AB87FF}"/>
+    <hyperlink ref="C35" r:id="rId24" tooltip="Component" display="'Yageo" xr:uid="{08B2D77A-C961-4F1D-AFA4-DC55EC8E10B9}"/>
+    <hyperlink ref="C36" r:id="rId25" tooltip="Component" display="'Yageo" xr:uid="{6183D855-C319-49BE-ACC8-EC8C6BBA2F88}"/>
+    <hyperlink ref="C37" r:id="rId26" tooltip="Component" display="'Yageo Phycomp" xr:uid="{5950247D-C760-4718-8FAE-5E6C4F05BCD2}"/>
+    <hyperlink ref="C38" r:id="rId27" tooltip="Component" display="'Yageo" xr:uid="{EDD4728F-658E-45CA-805D-0D5A364D1675}"/>
+    <hyperlink ref="C39" r:id="rId28" tooltip="Component" display="'Yageo" xr:uid="{BF509188-DE8C-48F6-BFE8-72C2EA644E95}"/>
+    <hyperlink ref="C40" r:id="rId29" tooltip="Component" display="'XP Power" xr:uid="{F13D531A-1B01-4346-8731-C578CEA744C3}"/>
+    <hyperlink ref="C41" r:id="rId30" tooltip="Component" display="'STMicroelectronics" xr:uid="{033D066A-A076-47A7-B6FC-B922BE486A51}"/>
+    <hyperlink ref="C42" r:id="rId31" tooltip="Component" display="'TI National Semiconductor" xr:uid="{5AA3AD66-EE4A-4164-99A1-BD5A5D564D11}"/>
+    <hyperlink ref="C43" r:id="rId32" tooltip="Component" display="'Linear Technology" xr:uid="{CC0F17CE-3D83-4084-B95A-1A737BBA70AD}"/>
+    <hyperlink ref="C44" r:id="rId33" tooltip="Component" display="'Texas Instruments" xr:uid="{5EA39E6D-7198-440E-95B2-66E43BB9239D}"/>
+    <hyperlink ref="C45" r:id="rId34" tooltip="Component" display="'Linear Technology" xr:uid="{D7AD8CB8-3A8B-4EC8-BE16-79E79A7DEC12}"/>
+    <hyperlink ref="C46" r:id="rId35" tooltip="Component" display="'Bourns" xr:uid="{AD497C1A-8B8D-4827-9460-1A6B0B73296E}"/>
+    <hyperlink ref="D12" r:id="rId36" tooltip="Manufacturer" display="'GRT21BR61H475ME13L" xr:uid="{EDC4ED76-C097-4B3F-A732-894FD778138B}"/>
+    <hyperlink ref="D13" r:id="rId37" tooltip="Manufacturer" display="'GRM188R61E225KA12D" xr:uid="{8692B7EE-3DC9-4CC6-ADF0-1DFFC2FBBE6A}"/>
+    <hyperlink ref="D14" r:id="rId38" tooltip="Manufacturer" display="'GRM188R61E225KA12D" xr:uid="{97C43709-31DA-4918-98C6-3E4DFBACB701}"/>
+    <hyperlink ref="D15" r:id="rId39" tooltip="Manufacturer" display="'UMK107AB7105KA-T" xr:uid="{027701A6-EF34-494B-B220-4684CC66C945}"/>
+    <hyperlink ref="D16" r:id="rId40" tooltip="Manufacturer" display="'UMK107AB7105KA-T" xr:uid="{67EB352F-C759-4EDE-A0A4-38C602AE5241}"/>
+    <hyperlink ref="D17" r:id="rId41" tooltip="Manufacturer" display="'06035C-104KAT2A" xr:uid="{D4E7BFE3-B38A-4F89-9A5F-7104D176FAFE}"/>
+    <hyperlink ref="D18" r:id="rId42" tooltip="Manufacturer" display="'GRM188R71H223KA01D" xr:uid="{380FD35E-AFF8-47D3-A6AE-5C771F91C8F2}"/>
+    <hyperlink ref="D19" r:id="rId43" tooltip="Manufacturer" display="'GRM21BR61E106KA73L" xr:uid="{AD246F75-5309-4A86-89D1-031D845A874D}"/>
+    <hyperlink ref="D20" r:id="rId44" tooltip="Manufacturer" display="'TAJR105K025RNJ" xr:uid="{CE9A76A8-FF31-4DE7-B3ED-B65E3ED9FC70}"/>
+    <hyperlink ref="D21" r:id="rId45" tooltip="Manufacturer" display="'06035C-104KAT2A" xr:uid="{E2BB8479-7F65-4309-B3E2-3A287497EFEC}"/>
+    <hyperlink ref="D22" r:id="rId46" tooltip="Manufacturer" display="'06035C-104KAT2A" xr:uid="{FF3337CB-6AA2-4CA4-A8DF-1A4B13CFC681}"/>
+    <hyperlink ref="D23" r:id="rId47" tooltip="Manufacturer" display="'06035C-104KAT2A" xr:uid="{078DF69A-E0C6-4700-A2FB-D8C91706F127}"/>
+    <hyperlink ref="D24" r:id="rId48" tooltip="Manufacturer" display="'C0603C103J5JAC7867" xr:uid="{B3DA0181-1632-493B-B95E-2843197963FA}"/>
+    <hyperlink ref="D25" r:id="rId49" tooltip="Manufacturer" display="'GRM1885C1H200JA01D" xr:uid="{E629883E-EDA9-4F54-A8A1-FB2C18966C8B}"/>
+    <hyperlink ref="D26" r:id="rId50" tooltip="Manufacturer" display="'06035C-104KAT2A" xr:uid="{BD42B034-337A-4689-BFF0-59EAFBEF038C}"/>
+    <hyperlink ref="D27" r:id="rId51" tooltip="Manufacturer" display="'B82422T1104J" xr:uid="{069DE177-3CF5-4849-8DE1-A8BD5E588648}"/>
+    <hyperlink ref="D28" r:id="rId52" tooltip="Manufacturer" display="'NLFV32T-6R8M-EF" xr:uid="{CDF6331D-1BB5-4EE0-9E22-0496833829AF}"/>
+    <hyperlink ref="D29" r:id="rId53" tooltip="Manufacturer" display="'150060YS75000" xr:uid="{43678202-328F-40F1-B1D2-4C5A4E69EB12}"/>
+    <hyperlink ref="D30" r:id="rId54" tooltip="Manufacturer" display="'150060VS75000" xr:uid="{80E308E5-4EE6-4E4D-9A5F-C004D62697B1}"/>
+    <hyperlink ref="D31" r:id="rId55" tooltip="Manufacturer" display="'RC0603FR-07120RL" xr:uid="{2694028A-5994-4087-A06B-40C5315BDE41}"/>
+    <hyperlink ref="D32" r:id="rId56" tooltip="Manufacturer" display="'WSBM8518L1000JK" xr:uid="{D358CE23-974B-4870-823D-9CC1F0252627}"/>
+    <hyperlink ref="D33" r:id="rId57" tooltip="Manufacturer" display="'ACASN1002S1002P1AT" xr:uid="{71825428-BEBF-488D-B39A-9F892DE25FDE}"/>
+    <hyperlink ref="D34" r:id="rId58" tooltip="Manufacturer" display="'RC0603FR-074K7L" xr:uid="{2BA9E213-3B4E-49F8-B473-90F66BCCE47B}"/>
+    <hyperlink ref="D35" r:id="rId59" tooltip="Manufacturer" display="'RC0603FR-072KL" xr:uid="{847A608F-006B-4D03-80EB-C43401E07EF8}"/>
+    <hyperlink ref="D36" r:id="rId60" tooltip="Manufacturer" display="'RC0603FR-072KL" xr:uid="{C1534D21-AEEC-4408-8ADC-A5CB8BB0474A}"/>
+    <hyperlink ref="D37" r:id="rId61" tooltip="Manufacturer" display="'RC0603FR-07120RL" xr:uid="{D8F93B0B-961B-4C4D-95C1-4542769EA0F7}"/>
+    <hyperlink ref="D38" r:id="rId62" tooltip="Manufacturer" display="'RC0603FR-071K4L" xr:uid="{F88C59E3-E864-4262-AAEE-83589C4404AC}"/>
+    <hyperlink ref="D39" r:id="rId63" tooltip="Manufacturer" display="'RC0603FR-07604RL" xr:uid="{E6A2EA16-2AF8-45A3-9640-75CFBC1EFBD9}"/>
+    <hyperlink ref="D40" r:id="rId64" tooltip="Manufacturer" display="'ISE1212A-TR" xr:uid="{28D4CDD0-22F0-4393-9846-3F2CDD49B101}"/>
+    <hyperlink ref="D41" r:id="rId65" tooltip="Manufacturer" display="'LD2981CM50TR" xr:uid="{32547C43-6CC8-4658-B425-318058F0FA69}"/>
+    <hyperlink ref="D42" r:id="rId66" tooltip="Manufacturer" display="'LM4120AIM5-4.1/NOPB" xr:uid="{7CE8ED67-FDC5-4E06-99F0-0B10FBEED16A}"/>
+    <hyperlink ref="D43" r:id="rId67" tooltip="Manufacturer" display="'LTC2484CDD#PBF" xr:uid="{FB6AE045-C6FB-4E66-9ED9-F8A823636C3A}"/>
+    <hyperlink ref="D44" r:id="rId68" tooltip="Manufacturer" display="'INA240A3PWR" xr:uid="{17659A9A-6C1D-4A29-89C2-89FBBEC05513}"/>
+    <hyperlink ref="D45" r:id="rId69" tooltip="Manufacturer" display="'LTC6820IUD#PBF" xr:uid="{9553B355-5BB0-4B05-95A4-107CD4E29582}"/>
+    <hyperlink ref="D46" r:id="rId70" tooltip="Manufacturer" display="'PT61018AAPEL-S" xr:uid="{99406CD2-374A-43FF-B2FE-C862C23BE5F3}"/>
+    <hyperlink ref="F12" r:id="rId71" tooltip="Supplier" display="'490-12395-1-ND" xr:uid="{7B6E7A7C-4460-49E7-8F8C-ED56B57ED86F}"/>
+    <hyperlink ref="F13" r:id="rId72" tooltip="Supplier" display="'490-10731-1-ND" xr:uid="{B26F4B26-35C3-485D-AC5B-0B2B4F531A00}"/>
+    <hyperlink ref="F14" r:id="rId73" tooltip="Supplier" display="'490-10731-1-ND" xr:uid="{E623230B-8F37-4DDE-990C-9881D48820A3}"/>
+    <hyperlink ref="F15" r:id="rId74" tooltip="Supplier" display="'587-3247-1-ND" xr:uid="{9EA7D139-71CE-4296-95AE-DDDEFF017981}"/>
+    <hyperlink ref="F16" r:id="rId75" tooltip="Supplier" display="'587-3247-1-ND" xr:uid="{BFB9F701-D85E-4A06-BC0F-84791F0448FF}"/>
+    <hyperlink ref="F17" r:id="rId76" tooltip="Supplier" display="'478-5052-1-ND" xr:uid="{AAD39D36-8C28-4AFC-8642-C89CD2875974}"/>
+    <hyperlink ref="F18" r:id="rId77" tooltip="Supplier" display="'490-1517-1-ND" xr:uid="{869207F0-FA8F-4A19-866A-2FD6369E47B2}"/>
+    <hyperlink ref="F19" r:id="rId78" tooltip="Supplier" display="'490-5523-1-ND" xr:uid="{49C3983E-A168-44AA-BD06-8D55A60D8A00}"/>
+    <hyperlink ref="F20" r:id="rId79" tooltip="Supplier" display="'478-8928-1-ND" xr:uid="{DA2C0723-BBD3-4AC4-9DDD-2314CBA109BB}"/>
+    <hyperlink ref="F21" r:id="rId80" tooltip="Supplier" display="'478-5052-1-ND" xr:uid="{71A265B0-ED4C-4D96-B08C-8C32365F3C39}"/>
+    <hyperlink ref="F22" r:id="rId81" tooltip="Supplier" display="'478-5052-1-ND" xr:uid="{0B8E7E8B-63CB-4873-BDAF-8C54B336974A}"/>
+    <hyperlink ref="F23" r:id="rId82" tooltip="Supplier" display="'478-5052-1-ND" xr:uid="{62D03D76-6B70-4D43-9223-ABBD91C74552}"/>
+    <hyperlink ref="F24" r:id="rId83" tooltip="Supplier" display="'399-13384-1-ND" xr:uid="{8329AF01-E04D-49B0-BA52-A407B933B23E}"/>
+    <hyperlink ref="F25" r:id="rId84" tooltip="Supplier" display="'490-1410-1-ND" xr:uid="{7188268D-3BAA-4AA8-B133-BC32B2995EFE}"/>
+    <hyperlink ref="F26" r:id="rId85" tooltip="Supplier" display="'478-5052-1-ND" xr:uid="{48EAA66E-DAB6-48F9-9F52-5D77A579EE30}"/>
+    <hyperlink ref="F27" r:id="rId86" tooltip="Supplier" display="'495-5646-1-ND" xr:uid="{6CF96A46-EFD4-4231-9DC7-A812C6581614}"/>
+    <hyperlink ref="F28" r:id="rId87" tooltip="Supplier" display="'445-15776-1-ND" xr:uid="{97661A58-9067-4DA5-AF2C-E7EC5C719455}"/>
+    <hyperlink ref="F29" r:id="rId88" tooltip="Supplier" display="'732-4981-1-ND" xr:uid="{E5B63714-856A-4EB1-98D9-7DE4E3D6A5DC}"/>
+    <hyperlink ref="F30" r:id="rId89" tooltip="Supplier" display="'732-4980-1-ND" xr:uid="{0A8EFBAE-BA39-46F9-AB20-EC33CCA3CE2D}"/>
+    <hyperlink ref="F31" r:id="rId90" tooltip="Supplier" display="'311-120HRCT-ND" xr:uid="{69CA0CA8-CA06-4AC7-B6D1-E0C61D9CF727}"/>
+    <hyperlink ref="F32" r:id="rId91" tooltip="Supplier" display="'541-1906-ND" xr:uid="{BC34A981-FB89-4B7F-90FA-E4E2591D2605}"/>
+    <hyperlink ref="F33" r:id="rId92" tooltip="Supplier" display="'749-1046-1-ND" xr:uid="{E516C3FC-7997-4FBF-9121-865E1FC72FDA}"/>
+    <hyperlink ref="F34" r:id="rId93" tooltip="Supplier" display="'311-4.70KHRCT-ND" xr:uid="{F078C379-D6B7-4370-B622-D6ACF60AAF32}"/>
+    <hyperlink ref="F35" r:id="rId94" tooltip="Supplier" display="'311-2.00KHRCT-ND" xr:uid="{83670E60-0030-46E2-BC52-D3FE66DDA015}"/>
+    <hyperlink ref="F36" r:id="rId95" tooltip="Supplier" display="'311-2.00KHRCT-ND" xr:uid="{2EEB6654-A11C-4506-957E-25F124946909}"/>
+    <hyperlink ref="F37" r:id="rId96" tooltip="Supplier" display="'311-120HRCT-ND" xr:uid="{C004FF93-92E9-4EB4-90A4-41DB9E3B7CF2}"/>
+    <hyperlink ref="F38" r:id="rId97" tooltip="Supplier" display="'311-1.40KHRCT-ND" xr:uid="{00A916E4-1F3A-4197-935A-2028F3FF42E0}"/>
+    <hyperlink ref="F39" r:id="rId98" tooltip="Supplier" display="'311-604HRCT-ND" xr:uid="{66B106F2-48A8-4998-877B-CE46AC00BB5F}"/>
+    <hyperlink ref="F40" r:id="rId99" tooltip="Supplier" display="'1470-2950-1-ND" xr:uid="{2753E41B-C200-4D4E-ABD1-1797926D2774}"/>
+    <hyperlink ref="F41" r:id="rId100" tooltip="Supplier" display="'497-7787-1-ND" xr:uid="{2DE3E203-7CD2-4D1B-8B66-C7469D162BF7}"/>
+    <hyperlink ref="F42" r:id="rId101" tooltip="Supplier" display="'LM4120AIM5-4.1/NOPBCT-ND" xr:uid="{FB61089C-13B5-40A7-B6B7-127BBF57EEAD}"/>
+    <hyperlink ref="F43" r:id="rId102" tooltip="Supplier" display="'LTC2484CDD#PBF-ND" xr:uid="{BC6584A5-2F59-4423-9E5E-6B042FFFD72C}"/>
+    <hyperlink ref="F44" r:id="rId103" tooltip="Supplier" display="'296-45090-1-ND" xr:uid="{E1D5F845-FE1F-4E7D-8809-C220BD8079F4}"/>
+    <hyperlink ref="F45" r:id="rId104" tooltip="Supplier" display="'LTC6820IUD#PBF-ND" xr:uid="{CC85AF7A-2D5E-41B1-8BAD-1468158A399D}"/>
+    <hyperlink ref="F46" r:id="rId105" tooltip="Supplier" display="'PT61018AAPEL-SCT-ND" xr:uid="{2557D52C-F9EA-48EF-8341-58815127068E}"/>
   </hyperlinks>
   <pageMargins left="0.46" right="0.36" top="0.57999999999999996" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId82"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId106"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;BAltium Limited Confidential&amp;B&amp;C&amp;D&amp;RPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId83"/>
+  <drawing r:id="rId107"/>
 </worksheet>
 </file>
 
@@ -2184,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2200,7 +2483,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2216,7 +2499,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2224,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2240,7 +2523,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2248,7 +2531,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2272,7 +2555,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2280,7 +2563,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">

--- a/MSXII_BMS_Current_Sense/Project Outputs for BMS_Current_Sense/BMS_Current_Sense_2.2.xlsx
+++ b/MSXII_BMS_Current_Sense/Project Outputs for BMS_Current_Sense/BMS_Current_Sense_2.2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
     <workbookView xWindow="-30" yWindow="75" windowWidth="15165" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="180">
   <si>
     <t>Title</t>
   </si>
@@ -95,7 +95,7 @@
     <t>Taiping Li</t>
   </si>
   <si>
-    <t>2018-02-11 6:32:01 PM</t>
+    <t>2018-02-27 9:40:37 PM</t>
   </si>
   <si>
     <t>1</t>
@@ -197,13 +197,19 @@
     <t>C1</t>
   </si>
   <si>
-    <t>C2, C3</t>
-  </si>
-  <si>
-    <t>C4, C5</t>
-  </si>
-  <si>
-    <t>C6, C10, C11, C12, C15</t>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
   </si>
   <si>
     <t>C7</t>
@@ -215,12 +221,24 @@
     <t>C9</t>
   </si>
   <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
     <t>C13</t>
   </si>
   <si>
     <t>C14</t>
   </si>
   <si>
+    <t>C15</t>
+  </si>
+  <si>
     <t>L1</t>
   </si>
   <si>
@@ -233,7 +251,7 @@
     <t>LED2</t>
   </si>
   <si>
-    <t>R1, R7</t>
+    <t>R1</t>
   </si>
   <si>
     <t>R2</t>
@@ -245,7 +263,13 @@
     <t>R4</t>
   </si>
   <si>
-    <t>R5, R6</t>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
   </si>
   <si>
     <t>R8</t>
@@ -278,52 +302,55 @@
     <t>Manufacturer 1</t>
   </si>
   <si>
-    <t>Murata Electronics North America</t>
+    <t>Murata</t>
   </si>
   <si>
     <t>Taiyo Yuden</t>
   </si>
   <si>
-    <t>AVX Corporation</t>
+    <t>Kyocera AVX</t>
   </si>
   <si>
     <t>KEMET</t>
   </si>
   <si>
-    <t>EPCOS (TDK)</t>
-  </si>
-  <si>
-    <t>TDK Corporation</t>
-  </si>
-  <si>
-    <t>Wurth Electronics Inc.</t>
+    <t>TDK EPCOS</t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>Wurth Electronics</t>
+  </si>
+  <si>
+    <t>Yageo Phycomp</t>
+  </si>
+  <si>
+    <t>Vishay Dale</t>
+  </si>
+  <si>
+    <t>Vishay Beyschlag</t>
   </si>
   <si>
     <t>Yageo</t>
   </si>
   <si>
-    <t>Vishay Dale</t>
-  </si>
-  <si>
-    <t>Vishay Beyschlag</t>
-  </si>
-  <si>
     <t>XP Power</t>
   </si>
   <si>
     <t>STMicroelectronics</t>
   </si>
   <si>
+    <t>TI National Semiconductor</t>
+  </si>
+  <si>
+    <t>Linear Technology</t>
+  </si>
+  <si>
     <t>Texas Instruments</t>
   </si>
   <si>
-    <t>Linear Technology</t>
-  </si>
-  <si>
-    <t>Linear Technology/Analog Devices</t>
-  </si>
-  <si>
-    <t>Bourns Inc.</t>
+    <t>Bourns</t>
   </si>
   <si>
     <t>Manufacturer Part Number 1</t>
@@ -338,7 +365,7 @@
     <t>UMK107AB7105KA-T</t>
   </si>
   <si>
-    <t>06035C104KAT2A</t>
+    <t>06035C-104KAT2A</t>
   </si>
   <si>
     <t>GRM188R71H223KA01D</t>
@@ -356,7 +383,7 @@
     <t>GRM1885C1H200JA01D</t>
   </si>
   <si>
-    <t>B82422T1104J000</t>
+    <t>B82422T1104J</t>
   </si>
   <si>
     <t>NLFV32T-6R8M-EF</t>
@@ -389,7 +416,7 @@
     <t>RC0603FR-07604RL</t>
   </si>
   <si>
-    <t>ISE1212A</t>
+    <t>ISE1212A-TR</t>
   </si>
   <si>
     <t>LD2981CM50TR</t>
@@ -518,10 +545,10 @@
     <t>Bill of Materials For Project [BMS_Current_Sense.PrjPcb] (No PCB Document Selected)</t>
   </si>
   <si>
-    <t>6:32:01 PM</t>
-  </si>
-  <si>
-    <t>2018-02-11</t>
+    <t>9:40:37 PM</t>
+  </si>
+  <si>
+    <t>2018-02-27</t>
   </si>
   <si>
     <t>BOM_PartType</t>
@@ -1114,7 +1141,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J41"/>
+  <dimension ref="A2:J49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -1223,25 +1250,25 @@
         <v>58</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1252,25 +1279,25 @@
         <v>59</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G12" s="3">
-        <v>0.56000000000000005</v>
+        <v>0.53</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
       </c>
       <c r="I12" s="8">
-        <v>0.56000000000000005</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1281,791 +1308,1023 @@
         <v>60</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="G13" s="3">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="H13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" s="8">
-        <v>0.42</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="29" t="s">
         <v>61</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G14" s="3">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="H14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="8">
-        <v>0.66</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="29" t="s">
         <v>62</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="G15" s="3">
-        <v>0.13</v>
+        <v>0.34</v>
       </c>
       <c r="H15" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I15" s="8">
-        <v>0.65</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B16" s="29" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="G16" s="3">
-        <v>0.15</v>
+        <v>0.34</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
       </c>
       <c r="I16" s="8">
-        <v>0.15</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17" s="29" t="s">
         <v>64</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="G17" s="3">
-        <v>0.28000000000000003</v>
+        <v>0.13</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
       </c>
       <c r="I17" s="8">
-        <v>0.28000000000000003</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="29" t="s">
         <v>65</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G18" s="3">
-        <v>0.95</v>
+        <v>0.15</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
       </c>
       <c r="I18" s="8">
-        <v>0.95</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" s="29" t="s">
         <v>66</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G19" s="3">
-        <v>0.35</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
       </c>
       <c r="I19" s="8">
-        <v>0.35</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" s="29" t="s">
         <v>67</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G20" s="3">
-        <v>0.15</v>
+        <v>0.89</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
       </c>
       <c r="I20" s="8">
-        <v>0.15</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="29" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B21" s="29" t="s">
         <v>68</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G21" s="3">
-        <v>0.65</v>
+        <v>0.13</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
       </c>
       <c r="I21" s="8">
-        <v>0.65</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="29" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B22" s="29" t="s">
         <v>69</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G22" s="3">
-        <v>0.59</v>
+        <v>0.13</v>
       </c>
       <c r="H22" s="3">
         <v>1</v>
       </c>
       <c r="I22" s="8">
-        <v>0.59</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="29" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B23" s="29" t="s">
         <v>70</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G23" s="3">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="H23" s="3">
         <v>1</v>
       </c>
       <c r="I23" s="8">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B24" s="29" t="s">
         <v>71</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G24" s="3">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
       </c>
       <c r="I24" s="8">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="29" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B25" s="29" t="s">
         <v>72</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G25" s="3">
         <v>0.14000000000000001</v>
       </c>
       <c r="H25" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" s="8">
-        <v>0.28000000000000003</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="29" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B26" s="29" t="s">
         <v>73</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G26" s="3">
-        <v>19.079999999999998</v>
+        <v>0.13</v>
       </c>
       <c r="H26" s="3">
         <v>1</v>
       </c>
       <c r="I26" s="8">
-        <v>19.079999999999998</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="29" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B27" s="29" t="s">
         <v>74</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G27" s="3">
-        <v>0.84</v>
+        <v>0.62</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
       </c>
       <c r="I27" s="8">
-        <v>0.84</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B28" s="29" t="s">
         <v>75</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G28" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H28" s="3">
         <v>1</v>
       </c>
       <c r="I28" s="8">
-        <v>0.14000000000000001</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="29" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B29" s="29" t="s">
         <v>76</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G29" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="H29" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" s="8">
-        <v>0.28000000000000003</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B30" s="29" t="s">
         <v>77</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G30" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="H30" s="3">
         <v>1</v>
       </c>
       <c r="I30" s="8">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B31" s="29" t="s">
         <v>78</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F31" s="33" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G31" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="H31" s="3">
         <v>1</v>
       </c>
       <c r="I31" s="8">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="29" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B32" s="29" t="s">
         <v>79</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G32" s="3">
-        <v>6.68</v>
+        <v>17.96</v>
       </c>
       <c r="H32" s="3">
         <v>1</v>
       </c>
       <c r="I32" s="8">
-        <v>6.68</v>
+        <v>17.96</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="29" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B33" s="29" t="s">
         <v>80</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G33" s="3">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
       <c r="H33" s="3">
         <v>1</v>
       </c>
       <c r="I33" s="8">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="29" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B34" s="29" t="s">
         <v>81</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F34" s="33" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G34" s="3">
-        <v>3.11</v>
+        <v>0.13</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
       </c>
       <c r="I34" s="8">
-        <v>3.11</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="29" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B35" s="29" t="s">
         <v>82</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G35" s="3">
-        <v>7.13</v>
+        <v>0.13</v>
       </c>
       <c r="H35" s="3">
         <v>1</v>
       </c>
       <c r="I35" s="8">
-        <v>7.13</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="29" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B36" s="29" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F36" s="33" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G36" s="3">
-        <v>3.76</v>
+        <v>0.13</v>
       </c>
       <c r="H36" s="3">
         <v>1</v>
       </c>
       <c r="I36" s="8">
-        <v>3.76</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="29" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B37" s="29" t="s">
         <v>84</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F37" s="33" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G37" s="3">
-        <v>7.1</v>
+        <v>0.13</v>
       </c>
       <c r="H37" s="3">
         <v>1</v>
       </c>
       <c r="I37" s="8">
-        <v>7.1</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="29" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B38" s="29" t="s">
         <v>85</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E38" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="H38" s="3">
+        <v>1</v>
+      </c>
+      <c r="I38" s="8">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="F38" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="G38" s="3">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="H38" s="3">
-        <v>1</v>
-      </c>
-      <c r="I38" s="8">
-        <v>2.4700000000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="9"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="3" t="s">
+      <c r="E39" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F39" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1</v>
+      </c>
+      <c r="I39" s="8">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="G40" s="3">
+        <v>5.34</v>
+      </c>
+      <c r="H40" s="3">
+        <v>1</v>
+      </c>
+      <c r="I40" s="8">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F41" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1</v>
+      </c>
+      <c r="I41" s="8">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="G42" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1</v>
+      </c>
+      <c r="I42" s="8">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="G43" s="3">
+        <v>6.31</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1</v>
+      </c>
+      <c r="I43" s="8">
+        <v>6.31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="G44" s="3">
+        <v>3.33</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1</v>
+      </c>
+      <c r="I44" s="8">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F45" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="G45" s="3">
+        <v>6.28</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1</v>
+      </c>
+      <c r="I45" s="8">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F46" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="G46" s="3">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1</v>
+      </c>
+      <c r="I46" s="8">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I39" s="12">
-        <f>SUM(I12:I38)</f>
-        <v>57.780000000000008</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="15"/>
-    </row>
-    <row r="41" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="15"/>
+      <c r="I47" s="12">
+        <f>SUM(I12:I46)</f>
+        <v>52.26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="13"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="15"/>
+    </row>
+    <row r="49" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2073,94 +2332,118 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1" tooltip="Component" display="'Murata Electronics North America" xr:uid="{E3B2D623-7845-4AA2-A851-FDADFA1B91EE}"/>
-    <hyperlink ref="C13" r:id="rId2" tooltip="Component" display="'Murata Electronics North America" xr:uid="{D2263D8C-F850-4840-94B4-3A5ECF32D34E}"/>
-    <hyperlink ref="C14" r:id="rId3" tooltip="Component" display="'Taiyo Yuden" xr:uid="{EAAEA198-1502-4666-9AB0-C5CFA087711F}"/>
-    <hyperlink ref="C15" r:id="rId4" tooltip="Component" display="'AVX Corporation" xr:uid="{4A25A0B2-16B6-489D-A706-7663D6DB0CE1}"/>
-    <hyperlink ref="C16" r:id="rId5" tooltip="Component" display="'Murata Electronics North America" xr:uid="{D5AE0CA9-62AB-44A7-AE1F-BFCA0EAAF077}"/>
-    <hyperlink ref="C17" r:id="rId6" tooltip="Component" display="'Murata Electronics North America" xr:uid="{5263ED4E-5CCA-4941-A6DB-93C0FCEFD759}"/>
-    <hyperlink ref="C18" r:id="rId7" tooltip="Component" display="'AVX Corporation" xr:uid="{D1C0492B-52E7-420D-A46C-7030F8B84A44}"/>
-    <hyperlink ref="C19" r:id="rId8" tooltip="Component" display="'KEMET" xr:uid="{76E01B5A-69EA-47B6-8A17-B3F41F17E88A}"/>
-    <hyperlink ref="C20" r:id="rId9" tooltip="Component" display="'Murata Electronics North America" xr:uid="{7F2448AF-8D1E-444B-8A1B-4FF905A7C6FD}"/>
-    <hyperlink ref="C21" r:id="rId10" tooltip="Component" display="'EPCOS (TDK)" xr:uid="{2D9B896A-A4DE-48D9-841B-08D291C7ADEB}"/>
-    <hyperlink ref="C22" r:id="rId11" tooltip="Component" display="'TDK Corporation" xr:uid="{07727964-1218-4600-A067-8F756ED8DA67}"/>
-    <hyperlink ref="C23" r:id="rId12" tooltip="Component" display="'Wurth Electronics Inc." xr:uid="{12C154C2-FA73-4580-99AA-64AAA55A4251}"/>
-    <hyperlink ref="C24" r:id="rId13" tooltip="Component" display="'Wurth Electronics Inc." xr:uid="{4D9236C3-F260-4D3B-B7C5-82F89595C961}"/>
-    <hyperlink ref="C25" r:id="rId14" tooltip="Component" display="'Yageo" xr:uid="{A43C55ED-A854-4CD2-A915-1A2405DA0217}"/>
-    <hyperlink ref="C26" r:id="rId15" tooltip="Component" display="'Vishay Dale" xr:uid="{FF8F550A-BA83-427B-83BB-8181718156A5}"/>
-    <hyperlink ref="C27" r:id="rId16" tooltip="Component" display="'Vishay Beyschlag" xr:uid="{D4203D3F-15A1-405C-A080-2A2DB8FA1A1D}"/>
-    <hyperlink ref="C28" r:id="rId17" tooltip="Component" display="'Yageo" xr:uid="{3F2480A8-F59F-4E8C-8CE9-7D65381DC97E}"/>
-    <hyperlink ref="C29" r:id="rId18" tooltip="Component" display="'Yageo" xr:uid="{CAFE3846-A48F-461B-8E55-5BDEC81F3CA4}"/>
-    <hyperlink ref="C30" r:id="rId19" tooltip="Component" display="'Yageo" xr:uid="{B3A176C9-42D3-450B-B659-5A45CFE8140F}"/>
-    <hyperlink ref="C31" r:id="rId20" tooltip="Component" display="'Yageo" xr:uid="{ADF71AE3-F109-4AE6-A8B5-445BB937B32E}"/>
-    <hyperlink ref="C32" r:id="rId21" tooltip="Component" display="'XP Power" xr:uid="{874E9394-BFF8-458C-B3CF-A036428EB11B}"/>
-    <hyperlink ref="C33" r:id="rId22" tooltip="Component" display="'STMicroelectronics" xr:uid="{A9CC0C6F-0C8A-4DBB-8954-87545BA3C32F}"/>
-    <hyperlink ref="C34" r:id="rId23" tooltip="Component" display="'Texas Instruments" xr:uid="{C80D2665-5164-425E-AF83-2EE8D0C229A3}"/>
-    <hyperlink ref="C35" r:id="rId24" tooltip="Component" display="'Linear Technology" xr:uid="{55868B4A-82E7-481F-B250-0BFBCB97C66E}"/>
-    <hyperlink ref="C36" r:id="rId25" tooltip="Component" display="'Texas Instruments" xr:uid="{CF35AC79-702E-44FA-8C85-2BEAB181AABF}"/>
-    <hyperlink ref="C37" r:id="rId26" tooltip="Component" display="'Linear Technology/Analog Devices" xr:uid="{A8BE7D7F-0B75-4051-801F-42C986151987}"/>
-    <hyperlink ref="C38" r:id="rId27" tooltip="Component" display="'Bourns Inc." xr:uid="{B2D2E088-69BD-4E5B-9925-139249D4D6CD}"/>
-    <hyperlink ref="D12" r:id="rId28" tooltip="Manufacturer" display="'GRT21BR61H475ME13L" xr:uid="{75891EF0-F152-4100-BBCF-25F0B9A44729}"/>
-    <hyperlink ref="D13" r:id="rId29" tooltip="Manufacturer" display="'GRM188R61E225KA12D" xr:uid="{F37D2B59-5873-4FCF-8B54-40FCF0F4BBFA}"/>
-    <hyperlink ref="D14" r:id="rId30" tooltip="Manufacturer" display="'UMK107AB7105KA-T" xr:uid="{CFB1931A-070F-4E9F-8D0B-21E9617D25CD}"/>
-    <hyperlink ref="D15" r:id="rId31" tooltip="Manufacturer" display="'06035C104KAT2A" xr:uid="{2D1BCB06-0C59-4852-8DA4-C3D266F6830F}"/>
-    <hyperlink ref="D16" r:id="rId32" tooltip="Manufacturer" display="'GRM188R71H223KA01D" xr:uid="{31166BC0-98C3-45DF-80D5-903CA04688B6}"/>
-    <hyperlink ref="D17" r:id="rId33" tooltip="Manufacturer" display="'GRM21BR61E106KA73L" xr:uid="{C6BCDB05-52A0-4C2F-B86D-AA1066C79442}"/>
-    <hyperlink ref="D18" r:id="rId34" tooltip="Manufacturer" display="'TAJR105K025RNJ" xr:uid="{FA672988-E722-4B98-91C1-2C470848A0C9}"/>
-    <hyperlink ref="D19" r:id="rId35" tooltip="Manufacturer" display="'C0603C103J5JAC7867" xr:uid="{B469C3A4-BC19-4176-8706-B9BA73E29A60}"/>
-    <hyperlink ref="D20" r:id="rId36" tooltip="Manufacturer" display="'GRM1885C1H200JA01D" xr:uid="{F4A407D5-0ECB-467E-8635-FBE62CE0745F}"/>
-    <hyperlink ref="D21" r:id="rId37" tooltip="Manufacturer" display="'B82422T1104J000" xr:uid="{A0F80677-9DB1-43D7-BA03-517A7E4F52DB}"/>
-    <hyperlink ref="D22" r:id="rId38" tooltip="Manufacturer" display="'NLFV32T-6R8M-EF" xr:uid="{601C723A-F544-40DB-89EB-B3D9D6D50BEE}"/>
-    <hyperlink ref="D23" r:id="rId39" tooltip="Manufacturer" display="'150060YS75000" xr:uid="{EB63D7DC-4F15-4D4A-B52A-03FF2CA5D64F}"/>
-    <hyperlink ref="D24" r:id="rId40" tooltip="Manufacturer" display="'150060VS75000" xr:uid="{0335A0BF-40D9-4B10-8890-7BD66DA7ED46}"/>
-    <hyperlink ref="D25" r:id="rId41" tooltip="Manufacturer" display="'RC0603FR-07120RL" xr:uid="{061C897F-C868-4C6B-9A76-BDB3EB56F13B}"/>
-    <hyperlink ref="D26" r:id="rId42" tooltip="Manufacturer" display="'WSBM8518L1000JK" xr:uid="{992ACBB5-AE41-4E68-8E32-08DAD88A5C3A}"/>
-    <hyperlink ref="D27" r:id="rId43" tooltip="Manufacturer" display="'ACASN1002S1002P1AT" xr:uid="{08CF13AA-67FB-4F60-901C-5ECDD2CD8EC5}"/>
-    <hyperlink ref="D28" r:id="rId44" tooltip="Manufacturer" display="'RC0603FR-074K7L" xr:uid="{4D8C650D-65F3-4209-90E3-BD3C16EA09F9}"/>
-    <hyperlink ref="D29" r:id="rId45" tooltip="Manufacturer" display="'RC0603FR-072KL" xr:uid="{292BC032-4797-41D9-A1FB-B04CAAB43A79}"/>
-    <hyperlink ref="D30" r:id="rId46" tooltip="Manufacturer" display="'RC0603FR-071K4L" xr:uid="{F47CE943-975B-400F-879C-1FBEDD432A9E}"/>
-    <hyperlink ref="D31" r:id="rId47" tooltip="Manufacturer" display="'RC0603FR-07604RL" xr:uid="{12B31FEC-80A5-4E11-B17B-DD16DC2CF461}"/>
-    <hyperlink ref="D32" r:id="rId48" tooltip="Manufacturer" display="'ISE1212A" xr:uid="{5A26344E-4AB3-4470-A276-9DD078A20088}"/>
-    <hyperlink ref="D33" r:id="rId49" tooltip="Manufacturer" display="'LD2981CM50TR" xr:uid="{32CD1406-1399-4E9B-8F2C-951654C2976D}"/>
-    <hyperlink ref="D34" r:id="rId50" tooltip="Manufacturer" display="'LM4120AIM5-4.1/NOPB" xr:uid="{B72FEF6F-2441-4054-85B0-CDEFBBF3FB56}"/>
-    <hyperlink ref="D35" r:id="rId51" tooltip="Manufacturer" display="'LTC2484CDD#PBF" xr:uid="{9FEC6B00-691C-4D31-8442-B9D82ED94468}"/>
-    <hyperlink ref="D36" r:id="rId52" tooltip="Manufacturer" display="'INA240A3PWR" xr:uid="{5EE7372E-2E71-409D-BE65-986C4F904D60}"/>
-    <hyperlink ref="D37" r:id="rId53" tooltip="Manufacturer" display="'LTC6820IUD#PBF" xr:uid="{E1974E9F-D6E4-4622-ACF0-8483CABBAF69}"/>
-    <hyperlink ref="D38" r:id="rId54" tooltip="Manufacturer" display="'PT61018AAPEL-S" xr:uid="{B075840F-813F-48E8-8BFE-B1EC77B8089A}"/>
-    <hyperlink ref="F12" r:id="rId55" tooltip="Supplier" display="'490-12395-1-ND" xr:uid="{7134408C-2C4D-48D7-A3E8-9AAF22B1A286}"/>
-    <hyperlink ref="F13" r:id="rId56" tooltip="Supplier" display="'490-10731-1-ND" xr:uid="{A309A74B-9FA7-4DDF-B175-98892AFBDA3E}"/>
-    <hyperlink ref="F14" r:id="rId57" tooltip="Supplier" display="'587-3247-1-ND" xr:uid="{7ABDB7EB-47E0-4AD3-9148-C09FA14D4148}"/>
-    <hyperlink ref="F15" r:id="rId58" tooltip="Supplier" display="'478-5052-1-ND" xr:uid="{A27CE2AE-41DE-4F76-8934-162DAED5B917}"/>
-    <hyperlink ref="F16" r:id="rId59" tooltip="Supplier" display="'490-1517-1-ND" xr:uid="{FCE55C8B-B559-4022-88D6-E9A9A0BB72E6}"/>
-    <hyperlink ref="F17" r:id="rId60" tooltip="Supplier" display="'490-5523-1-ND" xr:uid="{BA16EDC3-AE70-4434-8EDD-61FBAEF4812A}"/>
-    <hyperlink ref="F18" r:id="rId61" tooltip="Supplier" display="'478-8928-1-ND" xr:uid="{0FCF2A5E-EC76-4184-B580-6B97E5117A22}"/>
-    <hyperlink ref="F19" r:id="rId62" tooltip="Supplier" display="'399-13384-1-ND" xr:uid="{D0D1461F-97C5-4299-A0F4-3A3DF8F7131D}"/>
-    <hyperlink ref="F20" r:id="rId63" tooltip="Supplier" display="'490-1410-1-ND" xr:uid="{4C49E554-BA21-4EEF-8BAD-149846EC8DE7}"/>
-    <hyperlink ref="F21" r:id="rId64" tooltip="Supplier" display="'495-5646-1-ND" xr:uid="{DDE20358-3F29-45CF-BCCC-0339392EB8B2}"/>
-    <hyperlink ref="F22" r:id="rId65" tooltip="Supplier" display="'445-15776-1-ND" xr:uid="{A6EA1BFC-6A7F-497B-B45A-30DBB47A5384}"/>
-    <hyperlink ref="F23" r:id="rId66" tooltip="Supplier" display="'732-4981-1-ND" xr:uid="{4B638D3C-FE9E-48B3-9874-AABD939111F7}"/>
-    <hyperlink ref="F24" r:id="rId67" tooltip="Supplier" display="'732-4980-1-ND" xr:uid="{47B495E2-1CF8-4C92-8DA9-E1B0C43466A9}"/>
-    <hyperlink ref="F25" r:id="rId68" tooltip="Supplier" display="'311-120HRCT-ND" xr:uid="{30779C29-13B3-4E65-981D-3D187A31EB40}"/>
-    <hyperlink ref="F26" r:id="rId69" tooltip="Supplier" display="'541-1906-ND" xr:uid="{FD5EA6D7-3F00-460F-A6EB-E8672556CA5F}"/>
-    <hyperlink ref="F27" r:id="rId70" tooltip="Supplier" display="'749-1046-1-ND" xr:uid="{3CE4ECB0-A8EB-423A-A5FF-664BF8944F4D}"/>
-    <hyperlink ref="F28" r:id="rId71" tooltip="Supplier" display="'311-4.70KHRCT-ND" xr:uid="{EB526F5C-3135-4E72-BCF9-6FC8A65467DE}"/>
-    <hyperlink ref="F29" r:id="rId72" tooltip="Supplier" display="'311-2.00KHRCT-ND" xr:uid="{7DFE427D-FBA6-4343-8B85-5DFFFA976C6F}"/>
-    <hyperlink ref="F30" r:id="rId73" tooltip="Supplier" display="'311-1.40KHRCT-ND" xr:uid="{1B26C925-2824-4850-A8EC-D8D1575E8EA1}"/>
-    <hyperlink ref="F31" r:id="rId74" tooltip="Supplier" display="'311-604HRCT-ND" xr:uid="{5F073563-6B89-482D-8ACB-EA6680A974A0}"/>
-    <hyperlink ref="F32" r:id="rId75" tooltip="Supplier" display="'1470-2950-1-ND" xr:uid="{A95EBA7D-225F-4814-8065-5B4DA4C75C0C}"/>
-    <hyperlink ref="F33" r:id="rId76" tooltip="Supplier" display="'497-7787-1-ND" xr:uid="{C3444CBD-64E2-4557-B6C0-38233F2CCD85}"/>
-    <hyperlink ref="F34" r:id="rId77" tooltip="Supplier" display="'LM4120AIM5-4.1/NOPBCT-ND" xr:uid="{326E1528-C55B-4C28-A3AE-48AE3242BB7A}"/>
-    <hyperlink ref="F35" r:id="rId78" tooltip="Supplier" display="'LTC2484CDD#PBF-ND" xr:uid="{B61BB132-DC9E-4848-8D6A-7EEDE677562F}"/>
-    <hyperlink ref="F36" r:id="rId79" tooltip="Supplier" display="'296-45090-1-ND" xr:uid="{BFF1254D-63CE-46BF-B2DE-8315C87ED141}"/>
-    <hyperlink ref="F37" r:id="rId80" tooltip="Supplier" display="'LTC6820IUD#PBF-ND" xr:uid="{D4D06015-AEBE-438C-A321-E598CCF8B072}"/>
-    <hyperlink ref="F38" r:id="rId81" tooltip="Supplier" display="'PT61018AAPEL-SCT-ND" xr:uid="{0DB62674-E123-4FC6-B486-E4A003DDA130}"/>
+    <hyperlink ref="C12" r:id="rId1" tooltip="Component" display="'Murata" xr:uid="{B1EB2F5D-EDBB-4E3A-AD2F-DF913BAFF2DD}"/>
+    <hyperlink ref="C13" r:id="rId2" tooltip="Component" display="'Murata" xr:uid="{C65A51A7-5EC2-47DA-B183-F3B955103739}"/>
+    <hyperlink ref="C14" r:id="rId3" tooltip="Component" display="'Murata" xr:uid="{C131E058-0869-4B56-89AB-0CB45FDD6933}"/>
+    <hyperlink ref="C15" r:id="rId4" tooltip="Component" display="'Taiyo Yuden" xr:uid="{8CA2F3F4-4700-41F5-A06E-01CACE1B432C}"/>
+    <hyperlink ref="C16" r:id="rId5" tooltip="Component" display="'Taiyo Yuden" xr:uid="{C7CC27ED-C339-4D05-AA75-1A7681D696FD}"/>
+    <hyperlink ref="C17" r:id="rId6" tooltip="Component" display="'Kyocera AVX" xr:uid="{529AFDE9-E4D7-4A26-864F-22006CC12B00}"/>
+    <hyperlink ref="C18" r:id="rId7" tooltip="Component" display="'Murata" xr:uid="{6510E222-BE26-4327-A921-5EAF9F0255B5}"/>
+    <hyperlink ref="C19" r:id="rId8" tooltip="Component" display="'Murata" xr:uid="{58B4F54E-E1ED-495E-A9C4-87051B7D20A0}"/>
+    <hyperlink ref="C20" r:id="rId9" tooltip="Component" display="'Kyocera AVX" xr:uid="{E4B2C6DB-2203-48F6-B05E-4D35D993186C}"/>
+    <hyperlink ref="C21" r:id="rId10" tooltip="Component" display="'Kyocera AVX" xr:uid="{B1B31D26-0349-4FE3-A8CB-B80F803D1877}"/>
+    <hyperlink ref="C22" r:id="rId11" tooltip="Component" display="'Kyocera AVX" xr:uid="{63F29C05-3D0F-4C56-A954-1D355E75FF3A}"/>
+    <hyperlink ref="C23" r:id="rId12" tooltip="Component" display="'Kyocera AVX" xr:uid="{799C6C47-FF49-4E62-921C-D3C2E814570F}"/>
+    <hyperlink ref="C24" r:id="rId13" tooltip="Component" display="'KEMET" xr:uid="{A2BF3D4F-A051-45C3-B586-07AF73A93588}"/>
+    <hyperlink ref="C25" r:id="rId14" tooltip="Component" display="'Murata" xr:uid="{83327334-5DB3-4731-8A6D-A4A6FD4F591C}"/>
+    <hyperlink ref="C26" r:id="rId15" tooltip="Component" display="'Kyocera AVX" xr:uid="{F4F44110-A04B-416F-A039-8C3D0D7B27D1}"/>
+    <hyperlink ref="C27" r:id="rId16" tooltip="Component" display="'TDK EPCOS" xr:uid="{E654B9AD-354D-4A33-B842-9EFE1CEAAB4A}"/>
+    <hyperlink ref="C28" r:id="rId17" tooltip="Component" display="'TDK" xr:uid="{FEDE162C-148E-4829-901D-BA2D11C20998}"/>
+    <hyperlink ref="C29" r:id="rId18" tooltip="Component" display="'Wurth Electronics" xr:uid="{2DB1638C-B175-47F3-8E2C-2D9BD3C4602E}"/>
+    <hyperlink ref="C30" r:id="rId19" tooltip="Component" display="'Wurth Electronics" xr:uid="{25575ECD-9B5C-44A3-A61A-A3DB8FB0C1AD}"/>
+    <hyperlink ref="C31" r:id="rId20" tooltip="Component" display="'Yageo Phycomp" xr:uid="{636EB22E-680F-4DD7-95CB-074BDD173FC4}"/>
+    <hyperlink ref="C32" r:id="rId21" tooltip="Component" display="'Vishay Dale" xr:uid="{0A5155F8-6E3E-4F2E-AC44-60AA13DA8E62}"/>
+    <hyperlink ref="C33" r:id="rId22" tooltip="Component" display="'Vishay Beyschlag" xr:uid="{78C0D039-6448-427F-8717-61A6832784D7}"/>
+    <hyperlink ref="C34" r:id="rId23" tooltip="Component" display="'Yageo" xr:uid="{F7BA2089-13C8-47FD-B0BC-FC0487AB87FF}"/>
+    <hyperlink ref="C35" r:id="rId24" tooltip="Component" display="'Yageo" xr:uid="{08B2D77A-C961-4F1D-AFA4-DC55EC8E10B9}"/>
+    <hyperlink ref="C36" r:id="rId25" tooltip="Component" display="'Yageo" xr:uid="{6183D855-C319-49BE-ACC8-EC8C6BBA2F88}"/>
+    <hyperlink ref="C37" r:id="rId26" tooltip="Component" display="'Yageo Phycomp" xr:uid="{5950247D-C760-4718-8FAE-5E6C4F05BCD2}"/>
+    <hyperlink ref="C38" r:id="rId27" tooltip="Component" display="'Yageo" xr:uid="{EDD4728F-658E-45CA-805D-0D5A364D1675}"/>
+    <hyperlink ref="C39" r:id="rId28" tooltip="Component" display="'Yageo" xr:uid="{BF509188-DE8C-48F6-BFE8-72C2EA644E95}"/>
+    <hyperlink ref="C40" r:id="rId29" tooltip="Component" display="'XP Power" xr:uid="{F13D531A-1B01-4346-8731-C578CEA744C3}"/>
+    <hyperlink ref="C41" r:id="rId30" tooltip="Component" display="'STMicroelectronics" xr:uid="{033D066A-A076-47A7-B6FC-B922BE486A51}"/>
+    <hyperlink ref="C42" r:id="rId31" tooltip="Component" display="'TI National Semiconductor" xr:uid="{5AA3AD66-EE4A-4164-99A1-BD5A5D564D11}"/>
+    <hyperlink ref="C43" r:id="rId32" tooltip="Component" display="'Linear Technology" xr:uid="{CC0F17CE-3D83-4084-B95A-1A737BBA70AD}"/>
+    <hyperlink ref="C44" r:id="rId33" tooltip="Component" display="'Texas Instruments" xr:uid="{5EA39E6D-7198-440E-95B2-66E43BB9239D}"/>
+    <hyperlink ref="C45" r:id="rId34" tooltip="Component" display="'Linear Technology" xr:uid="{D7AD8CB8-3A8B-4EC8-BE16-79E79A7DEC12}"/>
+    <hyperlink ref="C46" r:id="rId35" tooltip="Component" display="'Bourns" xr:uid="{AD497C1A-8B8D-4827-9460-1A6B0B73296E}"/>
+    <hyperlink ref="D12" r:id="rId36" tooltip="Manufacturer" display="'GRT21BR61H475ME13L" xr:uid="{EDC4ED76-C097-4B3F-A732-894FD778138B}"/>
+    <hyperlink ref="D13" r:id="rId37" tooltip="Manufacturer" display="'GRM188R61E225KA12D" xr:uid="{8692B7EE-3DC9-4CC6-ADF0-1DFFC2FBBE6A}"/>
+    <hyperlink ref="D14" r:id="rId38" tooltip="Manufacturer" display="'GRM188R61E225KA12D" xr:uid="{97C43709-31DA-4918-98C6-3E4DFBACB701}"/>
+    <hyperlink ref="D15" r:id="rId39" tooltip="Manufacturer" display="'UMK107AB7105KA-T" xr:uid="{027701A6-EF34-494B-B220-4684CC66C945}"/>
+    <hyperlink ref="D16" r:id="rId40" tooltip="Manufacturer" display="'UMK107AB7105KA-T" xr:uid="{67EB352F-C759-4EDE-A0A4-38C602AE5241}"/>
+    <hyperlink ref="D17" r:id="rId41" tooltip="Manufacturer" display="'06035C-104KAT2A" xr:uid="{D4E7BFE3-B38A-4F89-9A5F-7104D176FAFE}"/>
+    <hyperlink ref="D18" r:id="rId42" tooltip="Manufacturer" display="'GRM188R71H223KA01D" xr:uid="{380FD35E-AFF8-47D3-A6AE-5C771F91C8F2}"/>
+    <hyperlink ref="D19" r:id="rId43" tooltip="Manufacturer" display="'GRM21BR61E106KA73L" xr:uid="{AD246F75-5309-4A86-89D1-031D845A874D}"/>
+    <hyperlink ref="D20" r:id="rId44" tooltip="Manufacturer" display="'TAJR105K025RNJ" xr:uid="{CE9A76A8-FF31-4DE7-B3ED-B65E3ED9FC70}"/>
+    <hyperlink ref="D21" r:id="rId45" tooltip="Manufacturer" display="'06035C-104KAT2A" xr:uid="{E2BB8479-7F65-4309-B3E2-3A287497EFEC}"/>
+    <hyperlink ref="D22" r:id="rId46" tooltip="Manufacturer" display="'06035C-104KAT2A" xr:uid="{FF3337CB-6AA2-4CA4-A8DF-1A4B13CFC681}"/>
+    <hyperlink ref="D23" r:id="rId47" tooltip="Manufacturer" display="'06035C-104KAT2A" xr:uid="{078DF69A-E0C6-4700-A2FB-D8C91706F127}"/>
+    <hyperlink ref="D24" r:id="rId48" tooltip="Manufacturer" display="'C0603C103J5JAC7867" xr:uid="{B3DA0181-1632-493B-B95E-2843197963FA}"/>
+    <hyperlink ref="D25" r:id="rId49" tooltip="Manufacturer" display="'GRM1885C1H200JA01D" xr:uid="{E629883E-EDA9-4F54-A8A1-FB2C18966C8B}"/>
+    <hyperlink ref="D26" r:id="rId50" tooltip="Manufacturer" display="'06035C-104KAT2A" xr:uid="{BD42B034-337A-4689-BFF0-59EAFBEF038C}"/>
+    <hyperlink ref="D27" r:id="rId51" tooltip="Manufacturer" display="'B82422T1104J" xr:uid="{069DE177-3CF5-4849-8DE1-A8BD5E588648}"/>
+    <hyperlink ref="D28" r:id="rId52" tooltip="Manufacturer" display="'NLFV32T-6R8M-EF" xr:uid="{CDF6331D-1BB5-4EE0-9E22-0496833829AF}"/>
+    <hyperlink ref="D29" r:id="rId53" tooltip="Manufacturer" display="'150060YS75000" xr:uid="{43678202-328F-40F1-B1D2-4C5A4E69EB12}"/>
+    <hyperlink ref="D30" r:id="rId54" tooltip="Manufacturer" display="'150060VS75000" xr:uid="{80E308E5-4EE6-4E4D-9A5F-C004D62697B1}"/>
+    <hyperlink ref="D31" r:id="rId55" tooltip="Manufacturer" display="'RC0603FR-07120RL" xr:uid="{2694028A-5994-4087-A06B-40C5315BDE41}"/>
+    <hyperlink ref="D32" r:id="rId56" tooltip="Manufacturer" display="'WSBM8518L1000JK" xr:uid="{D358CE23-974B-4870-823D-9CC1F0252627}"/>
+    <hyperlink ref="D33" r:id="rId57" tooltip="Manufacturer" display="'ACASN1002S1002P1AT" xr:uid="{71825428-BEBF-488D-B39A-9F892DE25FDE}"/>
+    <hyperlink ref="D34" r:id="rId58" tooltip="Manufacturer" display="'RC0603FR-074K7L" xr:uid="{2BA9E213-3B4E-49F8-B473-90F66BCCE47B}"/>
+    <hyperlink ref="D35" r:id="rId59" tooltip="Manufacturer" display="'RC0603FR-072KL" xr:uid="{847A608F-006B-4D03-80EB-C43401E07EF8}"/>
+    <hyperlink ref="D36" r:id="rId60" tooltip="Manufacturer" display="'RC0603FR-072KL" xr:uid="{C1534D21-AEEC-4408-8ADC-A5CB8BB0474A}"/>
+    <hyperlink ref="D37" r:id="rId61" tooltip="Manufacturer" display="'RC0603FR-07120RL" xr:uid="{D8F93B0B-961B-4C4D-95C1-4542769EA0F7}"/>
+    <hyperlink ref="D38" r:id="rId62" tooltip="Manufacturer" display="'RC0603FR-071K4L" xr:uid="{F88C59E3-E864-4262-AAEE-83589C4404AC}"/>
+    <hyperlink ref="D39" r:id="rId63" tooltip="Manufacturer" display="'RC0603FR-07604RL" xr:uid="{E6A2EA16-2AF8-45A3-9640-75CFBC1EFBD9}"/>
+    <hyperlink ref="D40" r:id="rId64" tooltip="Manufacturer" display="'ISE1212A-TR" xr:uid="{28D4CDD0-22F0-4393-9846-3F2CDD49B101}"/>
+    <hyperlink ref="D41" r:id="rId65" tooltip="Manufacturer" display="'LD2981CM50TR" xr:uid="{32547C43-6CC8-4658-B425-318058F0FA69}"/>
+    <hyperlink ref="D42" r:id="rId66" tooltip="Manufacturer" display="'LM4120AIM5-4.1/NOPB" xr:uid="{7CE8ED67-FDC5-4E06-99F0-0B10FBEED16A}"/>
+    <hyperlink ref="D43" r:id="rId67" tooltip="Manufacturer" display="'LTC2484CDD#PBF" xr:uid="{FB6AE045-C6FB-4E66-9ED9-F8A823636C3A}"/>
+    <hyperlink ref="D44" r:id="rId68" tooltip="Manufacturer" display="'INA240A3PWR" xr:uid="{17659A9A-6C1D-4A29-89C2-89FBBEC05513}"/>
+    <hyperlink ref="D45" r:id="rId69" tooltip="Manufacturer" display="'LTC6820IUD#PBF" xr:uid="{9553B355-5BB0-4B05-95A4-107CD4E29582}"/>
+    <hyperlink ref="D46" r:id="rId70" tooltip="Manufacturer" display="'PT61018AAPEL-S" xr:uid="{99406CD2-374A-43FF-B2FE-C862C23BE5F3}"/>
+    <hyperlink ref="F12" r:id="rId71" tooltip="Supplier" display="'490-12395-1-ND" xr:uid="{7B6E7A7C-4460-49E7-8F8C-ED56B57ED86F}"/>
+    <hyperlink ref="F13" r:id="rId72" tooltip="Supplier" display="'490-10731-1-ND" xr:uid="{B26F4B26-35C3-485D-AC5B-0B2B4F531A00}"/>
+    <hyperlink ref="F14" r:id="rId73" tooltip="Supplier" display="'490-10731-1-ND" xr:uid="{E623230B-8F37-4DDE-990C-9881D48820A3}"/>
+    <hyperlink ref="F15" r:id="rId74" tooltip="Supplier" display="'587-3247-1-ND" xr:uid="{9EA7D139-71CE-4296-95AE-DDDEFF017981}"/>
+    <hyperlink ref="F16" r:id="rId75" tooltip="Supplier" display="'587-3247-1-ND" xr:uid="{BFB9F701-D85E-4A06-BC0F-84791F0448FF}"/>
+    <hyperlink ref="F17" r:id="rId76" tooltip="Supplier" display="'478-5052-1-ND" xr:uid="{AAD39D36-8C28-4AFC-8642-C89CD2875974}"/>
+    <hyperlink ref="F18" r:id="rId77" tooltip="Supplier" display="'490-1517-1-ND" xr:uid="{869207F0-FA8F-4A19-866A-2FD6369E47B2}"/>
+    <hyperlink ref="F19" r:id="rId78" tooltip="Supplier" display="'490-5523-1-ND" xr:uid="{49C3983E-A168-44AA-BD06-8D55A60D8A00}"/>
+    <hyperlink ref="F20" r:id="rId79" tooltip="Supplier" display="'478-8928-1-ND" xr:uid="{DA2C0723-BBD3-4AC4-9DDD-2314CBA109BB}"/>
+    <hyperlink ref="F21" r:id="rId80" tooltip="Supplier" display="'478-5052-1-ND" xr:uid="{71A265B0-ED4C-4D96-B08C-8C32365F3C39}"/>
+    <hyperlink ref="F22" r:id="rId81" tooltip="Supplier" display="'478-5052-1-ND" xr:uid="{0B8E7E8B-63CB-4873-BDAF-8C54B336974A}"/>
+    <hyperlink ref="F23" r:id="rId82" tooltip="Supplier" display="'478-5052-1-ND" xr:uid="{62D03D76-6B70-4D43-9223-ABBD91C74552}"/>
+    <hyperlink ref="F24" r:id="rId83" tooltip="Supplier" display="'399-13384-1-ND" xr:uid="{8329AF01-E04D-49B0-BA52-A407B933B23E}"/>
+    <hyperlink ref="F25" r:id="rId84" tooltip="Supplier" display="'490-1410-1-ND" xr:uid="{7188268D-3BAA-4AA8-B133-BC32B2995EFE}"/>
+    <hyperlink ref="F26" r:id="rId85" tooltip="Supplier" display="'478-5052-1-ND" xr:uid="{48EAA66E-DAB6-48F9-9F52-5D77A579EE30}"/>
+    <hyperlink ref="F27" r:id="rId86" tooltip="Supplier" display="'495-5646-1-ND" xr:uid="{6CF96A46-EFD4-4231-9DC7-A812C6581614}"/>
+    <hyperlink ref="F28" r:id="rId87" tooltip="Supplier" display="'445-15776-1-ND" xr:uid="{97661A58-9067-4DA5-AF2C-E7EC5C719455}"/>
+    <hyperlink ref="F29" r:id="rId88" tooltip="Supplier" display="'732-4981-1-ND" xr:uid="{E5B63714-856A-4EB1-98D9-7DE4E3D6A5DC}"/>
+    <hyperlink ref="F30" r:id="rId89" tooltip="Supplier" display="'732-4980-1-ND" xr:uid="{0A8EFBAE-BA39-46F9-AB20-EC33CCA3CE2D}"/>
+    <hyperlink ref="F31" r:id="rId90" tooltip="Supplier" display="'311-120HRCT-ND" xr:uid="{69CA0CA8-CA06-4AC7-B6D1-E0C61D9CF727}"/>
+    <hyperlink ref="F32" r:id="rId91" tooltip="Supplier" display="'541-1906-ND" xr:uid="{BC34A981-FB89-4B7F-90FA-E4E2591D2605}"/>
+    <hyperlink ref="F33" r:id="rId92" tooltip="Supplier" display="'749-1046-1-ND" xr:uid="{E516C3FC-7997-4FBF-9121-865E1FC72FDA}"/>
+    <hyperlink ref="F34" r:id="rId93" tooltip="Supplier" display="'311-4.70KHRCT-ND" xr:uid="{F078C379-D6B7-4370-B622-D6ACF60AAF32}"/>
+    <hyperlink ref="F35" r:id="rId94" tooltip="Supplier" display="'311-2.00KHRCT-ND" xr:uid="{83670E60-0030-46E2-BC52-D3FE66DDA015}"/>
+    <hyperlink ref="F36" r:id="rId95" tooltip="Supplier" display="'311-2.00KHRCT-ND" xr:uid="{2EEB6654-A11C-4506-957E-25F124946909}"/>
+    <hyperlink ref="F37" r:id="rId96" tooltip="Supplier" display="'311-120HRCT-ND" xr:uid="{C004FF93-92E9-4EB4-90A4-41DB9E3B7CF2}"/>
+    <hyperlink ref="F38" r:id="rId97" tooltip="Supplier" display="'311-1.40KHRCT-ND" xr:uid="{00A916E4-1F3A-4197-935A-2028F3FF42E0}"/>
+    <hyperlink ref="F39" r:id="rId98" tooltip="Supplier" display="'311-604HRCT-ND" xr:uid="{66B106F2-48A8-4998-877B-CE46AC00BB5F}"/>
+    <hyperlink ref="F40" r:id="rId99" tooltip="Supplier" display="'1470-2950-1-ND" xr:uid="{2753E41B-C200-4D4E-ABD1-1797926D2774}"/>
+    <hyperlink ref="F41" r:id="rId100" tooltip="Supplier" display="'497-7787-1-ND" xr:uid="{2DE3E203-7CD2-4D1B-8B66-C7469D162BF7}"/>
+    <hyperlink ref="F42" r:id="rId101" tooltip="Supplier" display="'LM4120AIM5-4.1/NOPBCT-ND" xr:uid="{FB61089C-13B5-40A7-B6B7-127BBF57EEAD}"/>
+    <hyperlink ref="F43" r:id="rId102" tooltip="Supplier" display="'LTC2484CDD#PBF-ND" xr:uid="{BC6584A5-2F59-4423-9E5E-6B042FFFD72C}"/>
+    <hyperlink ref="F44" r:id="rId103" tooltip="Supplier" display="'296-45090-1-ND" xr:uid="{E1D5F845-FE1F-4E7D-8809-C220BD8079F4}"/>
+    <hyperlink ref="F45" r:id="rId104" tooltip="Supplier" display="'LTC6820IUD#PBF-ND" xr:uid="{CC85AF7A-2D5E-41B1-8BAD-1468158A399D}"/>
+    <hyperlink ref="F46" r:id="rId105" tooltip="Supplier" display="'PT61018AAPEL-SCT-ND" xr:uid="{2557D52C-F9EA-48EF-8341-58815127068E}"/>
   </hyperlinks>
   <pageMargins left="0.46" right="0.36" top="0.57999999999999996" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId82"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId106"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;BAltium Limited Confidential&amp;B&amp;C&amp;D&amp;RPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId83"/>
+  <drawing r:id="rId107"/>
 </worksheet>
 </file>
 
@@ -2184,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2200,7 +2483,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2216,7 +2499,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2224,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2240,7 +2523,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2248,7 +2531,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2272,7 +2555,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2280,7 +2563,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
